--- a/BackTest/2019-10-28 BackTest DVP.xlsx
+++ b/BackTest/2019-10-28 BackTest DVP.xlsx
@@ -5351,14 +5351,20 @@
         <v>10.8</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>10.8</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5386,14 +5392,20 @@
         <v>10.76666666666667</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>10.9</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5421,14 +5433,20 @@
         <v>10.76666666666667</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>10.6</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5456,14 +5474,20 @@
         <v>10.76666666666667</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>10.8</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5491,14 +5515,20 @@
         <v>10.9</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>10.9</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5526,14 +5556,20 @@
         <v>10.93333333333333</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>11</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5561,14 +5597,20 @@
         <v>10.96666666666667</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>10.9</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5603,7 +5645,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5638,7 +5684,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5673,7 +5723,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5708,7 +5762,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5743,7 +5801,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5778,7 +5840,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5813,7 +5879,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5848,7 +5918,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5883,7 +5957,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5918,7 +5996,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5953,7 +6035,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -5988,7 +6074,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6023,7 +6113,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6058,7 +6152,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6093,7 +6191,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6128,7 +6230,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6163,7 +6269,11 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6198,7 +6308,11 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6233,7 +6347,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6268,7 +6386,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6303,7 +6425,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6338,7 +6464,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6373,7 +6503,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6408,7 +6542,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6443,7 +6581,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6478,7 +6620,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6513,7 +6659,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6548,7 +6698,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6583,7 +6737,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6611,18 +6769,16 @@
         <v>10.53333333333333</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M178" t="n">
@@ -6652,14 +6808,12 @@
         <v>10.5</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>10.5</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
@@ -6693,14 +6847,12 @@
         <v>10.4</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>10.4</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
@@ -6734,14 +6886,12 @@
         <v>10.33333333333333</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>10.3</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
@@ -6775,14 +6925,12 @@
         <v>10.36666666666667</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>10.5</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
@@ -6816,14 +6964,12 @@
         <v>10.43333333333333</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>10.5</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
@@ -6857,14 +7003,12 @@
         <v>10.56666666666667</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
@@ -6898,14 +7042,12 @@
         <v>10.63333333333333</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
-        <v>10.7</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
@@ -6939,14 +7081,12 @@
         <v>10.63333333333333</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
@@ -6980,14 +7120,12 @@
         <v>10.6</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
@@ -7021,14 +7159,12 @@
         <v>10.6</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>10.7</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
@@ -7062,14 +7198,12 @@
         <v>10.66666666666667</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
@@ -7103,14 +7237,12 @@
         <v>10.7</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>10.7</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
@@ -7144,14 +7276,12 @@
         <v>10.7</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>10.7</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
@@ -7185,14 +7315,12 @@
         <v>10.66666666666667</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
@@ -7226,14 +7354,12 @@
         <v>10.63333333333333</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
@@ -7267,14 +7393,12 @@
         <v>10.6</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
@@ -7308,14 +7432,12 @@
         <v>10.56666666666666</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>10.5</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
@@ -7349,14 +7471,12 @@
         <v>10.53333333333333</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
@@ -7390,14 +7510,12 @@
         <v>10.46666666666666</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>10.4</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
@@ -7431,14 +7549,12 @@
         <v>10.46666666666666</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>10.5</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
@@ -7472,14 +7588,12 @@
         <v>10.46666666666666</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>10.5</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
@@ -7513,14 +7627,12 @@
         <v>10.53333333333333</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
@@ -7554,14 +7666,12 @@
         <v>10.56666666666666</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>10.5</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr">
         <is>
@@ -7595,14 +7705,12 @@
         <v>10.6</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
@@ -7636,14 +7744,12 @@
         <v>10.6</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
@@ -7677,14 +7783,12 @@
         <v>10.56666666666666</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
@@ -7718,14 +7822,12 @@
         <v>10.6</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>10.7</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
@@ -7759,14 +7861,12 @@
         <v>10.63333333333333</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>10.7</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
@@ -7800,14 +7900,12 @@
         <v>10.66666666666666</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
@@ -7841,14 +7939,12 @@
         <v>10.63333333333333</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
@@ -7882,14 +7978,12 @@
         <v>10.6</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
@@ -7923,14 +8017,12 @@
         <v>10.59999999999999</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
@@ -7964,14 +8056,12 @@
         <v>10.59999999999999</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
@@ -8005,14 +8095,12 @@
         <v>10.59999999999999</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
@@ -8046,14 +8134,12 @@
         <v>10.63333333333333</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>10.7</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
@@ -8087,14 +8173,12 @@
         <v>10.66666666666666</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>10.7</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
@@ -8128,14 +8212,12 @@
         <v>10.76666666666666</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>10.8</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
@@ -8169,14 +8251,12 @@
         <v>10.83333333333332</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>10.9</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
@@ -8210,14 +8290,12 @@
         <v>10.89999999999999</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>10.9</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
@@ -8368,14 +8446,12 @@
         <v>10.49999999999999</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>10.5</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
@@ -8409,14 +8485,12 @@
         <v>10.46666666666666</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>10.5</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
@@ -8450,14 +8524,12 @@
         <v>10.56666666666666</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>10.7</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
@@ -8491,14 +8563,12 @@
         <v>10.73333333333333</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>10.9</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
@@ -8532,14 +8602,12 @@
         <v>10.86666666666666</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>10.9</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
@@ -11147,14 +11215,12 @@
         <v>10.53333333333334</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="n">
-        <v>10.7</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr">
         <is>
@@ -11188,14 +11254,12 @@
         <v>10.63333333333334</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="n">
-        <v>10.5</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr">
         <is>
@@ -11276,7 +11340,7 @@
         <v>0</v>
       </c>
       <c r="J295" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="K295" t="inlineStr"/>
       <c r="L295" t="inlineStr">
@@ -11352,14 +11416,12 @@
         <v>10.53333333333334</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="n">
-        <v>10.7</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
       <c r="L297" t="inlineStr">
         <is>
@@ -11393,14 +11455,12 @@
         <v>10.50000000000001</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="n">
-        <v>10.5</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
       <c r="L298" t="inlineStr">
         <is>
@@ -11434,14 +11494,12 @@
         <v>10.46666666666668</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="n">
-        <v>10.3</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
       <c r="L299" t="inlineStr">
         <is>
@@ -11475,14 +11533,12 @@
         <v>10.30000000000001</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="n">
-        <v>10.4</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
       <c r="L300" t="inlineStr">
         <is>
@@ -11516,14 +11572,12 @@
         <v>10.33333333333334</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="n">
-        <v>10.5</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
       <c r="L301" t="inlineStr">
         <is>
@@ -11557,14 +11611,12 @@
         <v>10.40000000000001</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="n">
-        <v>10.5</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
       <c r="L302" t="inlineStr">
         <is>
@@ -11598,14 +11650,12 @@
         <v>10.50000000000001</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="n">
-        <v>10.5</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
       <c r="L303" t="inlineStr">
         <is>
@@ -11639,14 +11689,12 @@
         <v>10.50000000000001</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="n">
-        <v>10.5</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
       <c r="L304" t="inlineStr">
         <is>
@@ -11680,14 +11728,12 @@
         <v>10.50000000000001</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="n">
-        <v>10.5</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
       <c r="L305" t="inlineStr">
         <is>
@@ -11721,14 +11767,12 @@
         <v>10.50000000000001</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="n">
-        <v>10.5</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
       <c r="L306" t="inlineStr">
         <is>
@@ -11762,14 +11806,12 @@
         <v>10.50000000000001</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="n">
-        <v>10.5</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
       <c r="L307" t="inlineStr">
         <is>
@@ -11803,14 +11845,12 @@
         <v>10.50000000000001</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="n">
-        <v>10.5</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
       <c r="L308" t="inlineStr">
         <is>
@@ -11844,14 +11884,12 @@
         <v>10.53333333333334</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
       </c>
-      <c r="J309" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
       <c r="L309" t="inlineStr">
         <is>
@@ -11885,14 +11923,12 @@
         <v>10.50000000000001</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="n">
-        <v>10.4</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
       <c r="L310" t="inlineStr">
         <is>
@@ -11926,14 +11962,12 @@
         <v>10.43333333333334</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
-      <c r="J311" t="n">
-        <v>10.4</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
       <c r="L311" t="inlineStr">
         <is>
@@ -11967,14 +12001,12 @@
         <v>10.4</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
       </c>
-      <c r="J312" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
       <c r="L312" t="inlineStr">
         <is>
@@ -12008,14 +12040,12 @@
         <v>10.46666666666667</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
-      <c r="J313" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
       <c r="L313" t="inlineStr">
         <is>
@@ -12049,14 +12079,12 @@
         <v>10.56666666666667</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
       </c>
-      <c r="J314" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
       <c r="L314" t="inlineStr">
         <is>
@@ -12090,14 +12118,12 @@
         <v>10.6</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
-      <c r="J315" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
       <c r="L315" t="inlineStr">
         <is>
@@ -12131,14 +12157,12 @@
         <v>10.6</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
       </c>
-      <c r="J316" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
       <c r="L316" t="inlineStr">
         <is>
@@ -12172,14 +12196,12 @@
         <v>10.56666666666667</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
       </c>
-      <c r="J317" t="n">
-        <v>10.5</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
       <c r="L317" t="inlineStr">
         <is>
@@ -12213,14 +12235,12 @@
         <v>10.53333333333334</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
       </c>
-      <c r="J318" t="n">
-        <v>10.5</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
       <c r="L318" t="inlineStr">
         <is>
@@ -12254,14 +12274,12 @@
         <v>10.53333333333334</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
       </c>
-      <c r="J319" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
       <c r="L319" t="inlineStr">
         <is>
@@ -12295,14 +12313,12 @@
         <v>10.6</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
       </c>
-      <c r="J320" t="n">
-        <v>10.7</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
       <c r="L320" t="inlineStr">
         <is>
@@ -12336,14 +12352,12 @@
         <v>10.63333333333334</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
       </c>
-      <c r="J321" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
       <c r="L321" t="inlineStr">
         <is>
@@ -12377,14 +12391,12 @@
         <v>10.6</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
       </c>
-      <c r="J322" t="n">
-        <v>10.7</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
       <c r="L322" t="inlineStr">
         <is>
@@ -12418,14 +12430,12 @@
         <v>10.53333333333334</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
       </c>
-      <c r="J323" t="n">
-        <v>10.5</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
       <c r="L323" t="inlineStr">
         <is>
@@ -12459,14 +12469,12 @@
         <v>10.56666666666667</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
       </c>
-      <c r="J324" t="n">
-        <v>10.7</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
       <c r="L324" t="inlineStr">
         <is>
@@ -12500,14 +12508,12 @@
         <v>10.6</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
       </c>
-      <c r="J325" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
       <c r="L325" t="inlineStr">
         <is>
@@ -12541,14 +12547,12 @@
         <v>10.63333333333334</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
       </c>
-      <c r="J326" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
       <c r="L326" t="inlineStr">
         <is>
@@ -12582,14 +12586,12 @@
         <v>10.66666666666667</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
       </c>
-      <c r="J327" t="n">
-        <v>10.7</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
       <c r="L327" t="inlineStr">
         <is>
@@ -12623,14 +12625,12 @@
         <v>10.73333333333334</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
       </c>
-      <c r="J328" t="n">
-        <v>10.8</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
       <c r="L328" t="inlineStr">
         <is>
@@ -12664,14 +12664,12 @@
         <v>10.73333333333334</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
       </c>
-      <c r="J329" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
       <c r="L329" t="inlineStr">
         <is>
@@ -12705,14 +12703,12 @@
         <v>10.73333333333334</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
       </c>
-      <c r="J330" t="n">
-        <v>10.8</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
       <c r="L330" t="inlineStr">
         <is>
@@ -12746,14 +12742,12 @@
         <v>10.70000000000001</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
       </c>
-      <c r="J331" t="n">
-        <v>10.7</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
       <c r="L331" t="inlineStr">
         <is>
@@ -12787,14 +12781,12 @@
         <v>10.76666666666667</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
       </c>
-      <c r="J332" t="n">
-        <v>10.8</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
       <c r="L332" t="inlineStr">
         <is>
@@ -12828,14 +12820,12 @@
         <v>10.73333333333334</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
       </c>
-      <c r="J333" t="n">
-        <v>10.7</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
       <c r="L333" t="inlineStr">
         <is>
@@ -12908,14 +12898,12 @@
         <v>10.70000000000001</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
       </c>
-      <c r="J335" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
       <c r="L335" t="inlineStr">
         <is>
@@ -12949,14 +12937,12 @@
         <v>10.70000000000001</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
       </c>
-      <c r="J336" t="n">
-        <v>10.7</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
       <c r="L336" t="inlineStr">
         <is>
@@ -12990,14 +12976,12 @@
         <v>10.70000000000001</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
       </c>
-      <c r="J337" t="n">
-        <v>10.7</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
       <c r="L337" t="inlineStr">
         <is>
@@ -13031,14 +13015,12 @@
         <v>10.70000000000001</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
       </c>
-      <c r="J338" t="n">
-        <v>10.7</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
       <c r="L338" t="inlineStr">
         <is>
@@ -13072,14 +13054,12 @@
         <v>10.66666666666668</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
       </c>
-      <c r="J339" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
       <c r="L339" t="inlineStr">
         <is>
@@ -13113,14 +13093,12 @@
         <v>10.66666666666668</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
       </c>
-      <c r="J340" t="n">
-        <v>10.7</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
       <c r="L340" t="inlineStr">
         <is>
@@ -13154,14 +13132,12 @@
         <v>10.63333333333334</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
       </c>
-      <c r="J341" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
       <c r="L341" t="inlineStr">
         <is>
@@ -13195,14 +13171,12 @@
         <v>10.63333333333334</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
       </c>
-      <c r="J342" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
       <c r="L342" t="inlineStr">
         <is>
@@ -13236,14 +13210,12 @@
         <v>10.60000000000001</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
       </c>
-      <c r="J343" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
       <c r="L343" t="inlineStr">
         <is>
@@ -13277,14 +13249,12 @@
         <v>10.60000000000001</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
       </c>
-      <c r="J344" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
       <c r="L344" t="inlineStr">
         <is>
@@ -13318,14 +13288,12 @@
         <v>10.60000000000001</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
       </c>
-      <c r="J345" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
       <c r="L345" t="inlineStr">
         <is>
@@ -13359,14 +13327,12 @@
         <v>10.53333333333334</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
       </c>
-      <c r="J346" t="n">
-        <v>10.4</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
       <c r="L346" t="inlineStr">
         <is>
@@ -13400,14 +13366,12 @@
         <v>10.50000000000001</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
       </c>
-      <c r="J347" t="n">
-        <v>10.5</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
       <c r="L347" t="inlineStr">
         <is>
@@ -13441,14 +13405,12 @@
         <v>10.50000000000001</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
       </c>
-      <c r="J348" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
       <c r="L348" t="inlineStr">
         <is>
@@ -13482,14 +13444,12 @@
         <v>10.60000000000001</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
       </c>
-      <c r="J349" t="n">
-        <v>10.7</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
       <c r="L349" t="inlineStr">
         <is>
@@ -13523,14 +13483,12 @@
         <v>10.66666666666667</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
       </c>
-      <c r="J350" t="n">
-        <v>10.7</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
       <c r="L350" t="inlineStr">
         <is>
@@ -13564,14 +13522,12 @@
         <v>10.7</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
       </c>
-      <c r="J351" t="n">
-        <v>10.7</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
       <c r="L351" t="inlineStr">
         <is>
@@ -13605,14 +13561,12 @@
         <v>10.7</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
       </c>
-      <c r="J352" t="n">
-        <v>10.7</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
       <c r="L352" t="inlineStr">
         <is>
@@ -13646,14 +13600,12 @@
         <v>10.7</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
       </c>
-      <c r="J353" t="n">
-        <v>10.7</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
       <c r="L353" t="inlineStr">
         <is>
@@ -13687,14 +13639,12 @@
         <v>10.7</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
       </c>
-      <c r="J354" t="n">
-        <v>10.7</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
       <c r="L354" t="inlineStr">
         <is>
@@ -13728,14 +13678,12 @@
         <v>10.7</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
       </c>
-      <c r="J355" t="n">
-        <v>10.7</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
       <c r="L355" t="inlineStr">
         <is>
@@ -13769,14 +13717,12 @@
         <v>10.73333333333333</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
       </c>
-      <c r="J356" t="n">
-        <v>10.8</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
       <c r="L356" t="inlineStr">
         <is>
@@ -13810,14 +13756,12 @@
         <v>10.76666666666667</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
       </c>
-      <c r="J357" t="n">
-        <v>10.8</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
       <c r="L357" t="inlineStr">
         <is>
@@ -13851,14 +13795,12 @@
         <v>10.83333333333333</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
       </c>
-      <c r="J358" t="n">
-        <v>10.9</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
       <c r="L358" t="inlineStr">
         <is>
@@ -14324,18 +14266,16 @@
         <v>0</v>
       </c>
       <c r="I370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
       <c r="L370" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M370" t="n">
-        <v>1</v>
-      </c>
+      <c r="M370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -14363,15 +14303,11 @@
         <v>0</v>
       </c>
       <c r="I371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L371" t="inlineStr"/>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -14402,15 +14338,11 @@
         <v>0</v>
       </c>
       <c r="I372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L372" t="inlineStr"/>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -14445,11 +14377,7 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L373" t="inlineStr"/>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -14484,11 +14412,7 @@
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L374" t="inlineStr"/>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -14523,11 +14447,7 @@
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L375" t="inlineStr"/>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -14562,11 +14482,7 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L376" t="inlineStr"/>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -14601,11 +14517,7 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L377" t="inlineStr"/>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -14636,16 +14548,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M378" t="inlineStr"/>
+      <c r="L378" t="inlineStr"/>
+      <c r="M378" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -16178,7 +16088,7 @@
         <v>0</v>
       </c>
       <c r="I422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
@@ -16213,7 +16123,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
@@ -16248,7 +16158,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
@@ -16283,7 +16193,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
@@ -16318,7 +16228,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
@@ -16353,7 +16263,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
@@ -16388,7 +16298,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
@@ -16423,7 +16333,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
@@ -16458,7 +16368,7 @@
         <v>0</v>
       </c>
       <c r="I430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
@@ -16493,7 +16403,7 @@
         <v>0</v>
       </c>
       <c r="I431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
@@ -16598,7 +16508,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>

--- a/BackTest/2019-10-28 BackTest DVP.xlsx
+++ b/BackTest/2019-10-28 BackTest DVP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -979,7 +979,7 @@
         <v>8600007.235463386</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>6514079.792663386</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>6514079.792663386</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>7352277.421463386</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>6168787.003463387</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>6273635.386563387</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>6087735.294163386</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>4128839.097563387</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>4128839.097563387</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>3759201.985863387</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>4008347.003063387</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>4008347.003063387</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>4057117.939963387</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>3692997.488763387</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>2473202.333763387</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>2356452.219963387</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>2057534.901963387</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>2181754.567963387</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>2219316.471963387</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -3883,17 +3883,11 @@
         <v>-170881.3146267026</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="n">
-        <v>10.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3922,17 +3916,11 @@
         <v>-147182.8309267026</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="n">
-        <v>10.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3961,17 +3949,11 @@
         <v>-147182.8309267026</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="n">
-        <v>10.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4000,17 +3982,11 @@
         <v>-68288.18402670258</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="n">
-        <v>10.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4039,17 +4015,11 @@
         <v>47916.51987329741</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4082,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4119,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4156,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4189,15 +4147,11 @@
         <v>372442.8365732975</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4226,15 +4180,11 @@
         <v>372442.8365732975</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4267,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4304,11 +4250,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4341,11 +4283,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4378,11 +4316,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4415,11 +4349,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4452,11 +4382,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4489,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4522,16 +4444,14 @@
         <v>-243194.6834267024</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
       <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
@@ -4557,7 +4477,7 @@
         <v>-243194.6834267024</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4689,7 +4609,7 @@
         <v>-300524.1466267025</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -6240,7 +6160,7 @@
         <v>-702760.5434267021</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6273,7 +6193,7 @@
         <v>-702760.5434267021</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6306,7 +6226,7 @@
         <v>-702760.5434267021</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6339,7 +6259,7 @@
         <v>-1387524.868426702</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6900,11 +6820,17 @@
         <v>-2475467.808226702</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>10.6</v>
+      </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6933,11 +6859,17 @@
         <v>-2692146.036626702</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>10.7</v>
+      </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6966,11 +6898,17 @@
         <v>-2692146.036626702</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>10.6</v>
+      </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6999,11 +6937,17 @@
         <v>-2692146.036626702</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>10.6</v>
+      </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7032,15 +6976,17 @@
         <v>-2663066.410526702</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>10.6</v>
       </c>
-      <c r="J199" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7069,17 +7015,15 @@
         <v>-2589015.215126702</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>10.7</v>
       </c>
-      <c r="J200" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L200" t="n">
@@ -7110,17 +7054,15 @@
         <v>-1633982.991526702</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>10.8</v>
       </c>
-      <c r="J201" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L201" t="n">
@@ -7151,14 +7093,10 @@
         <v>-1699728.038226702</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I202" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="J202" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7192,14 +7130,12 @@
         <v>-1435522.774626702</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
         <v>10.6</v>
       </c>
-      <c r="J203" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7233,12 +7169,12 @@
         <v>-1408685.281726702</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7275,9 +7211,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7314,9 +7248,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7353,9 +7285,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7392,9 +7322,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7431,9 +7359,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7470,9 +7396,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7509,9 +7433,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7548,9 +7470,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7587,9 +7507,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7626,9 +7544,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7665,9 +7581,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7704,9 +7618,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7740,12 +7652,12 @@
         <v>-1629095.251740416</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7782,9 +7694,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7818,12 +7728,12 @@
         <v>-1629095.251740416</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7857,12 +7767,12 @@
         <v>-1629095.251740416</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7899,9 +7809,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7938,9 +7846,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7977,9 +7883,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8016,9 +7920,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8055,9 +7957,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8094,9 +7994,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8133,9 +8031,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8172,9 +8068,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8211,9 +8105,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8250,9 +8142,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8289,9 +8179,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8328,9 +8216,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8367,9 +8253,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8406,9 +8290,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8445,9 +8327,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8484,9 +8364,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8523,9 +8401,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8562,9 +8438,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8598,12 +8472,12 @@
         <v>-3293021.160817052</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8637,12 +8511,12 @@
         <v>-3293021.160817052</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8676,12 +8550,12 @@
         <v>-3282202.341917052</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8715,14 +8589,12 @@
         <v>-3282202.341917052</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I242" t="n">
         <v>10.5</v>
       </c>
-      <c r="J242" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8756,14 +8628,12 @@
         <v>-3258221.500817052</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>10.5</v>
       </c>
-      <c r="J243" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8797,14 +8667,10 @@
         <v>-3258221.500817052</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
-      </c>
-      <c r="I244" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="J244" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8838,12 +8704,12 @@
         <v>-3430628.659817052</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8877,12 +8743,12 @@
         <v>-3423148.177317052</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8916,12 +8782,12 @@
         <v>-3406750.233517052</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
         <v>10.6</v>
       </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8958,9 +8824,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8994,14 +8858,10 @@
         <v>-3406750.233517052</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
-      </c>
-      <c r="I249" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="J249" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9035,14 +8895,10 @@
         <v>-3406750.233517052</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
-      </c>
-      <c r="I250" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="J250" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9076,14 +8932,10 @@
         <v>-3407892.975717052</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
-      </c>
-      <c r="I251" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="J251" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9117,14 +8969,10 @@
         <v>-3407892.975717052</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
-      </c>
-      <c r="I252" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="J252" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9158,12 +9006,12 @@
         <v>-3407892.975717052</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
         <v>10.6</v>
       </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9200,9 +9048,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9236,12 +9082,12 @@
         <v>-4006524.863417052</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9275,12 +9121,12 @@
         <v>-4188912.774817052</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9314,12 +9160,12 @@
         <v>-4155176.204417052</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9353,14 +9199,10 @@
         <v>-4155176.204417052</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
-      </c>
-      <c r="I258" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="J258" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9394,12 +9236,12 @@
         <v>-4149176.204417052</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9436,9 +9278,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9472,14 +9312,10 @@
         <v>-4149176.204417052</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
-      </c>
-      <c r="I261" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="J261" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9513,14 +9349,12 @@
         <v>-4149176.204417052</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>10.6</v>
       </c>
-      <c r="J262" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9554,14 +9388,12 @@
         <v>-4227867.002217053</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>10.6</v>
       </c>
-      <c r="J263" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9595,14 +9427,10 @@
         <v>-4223456.254617052</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
-      </c>
-      <c r="I264" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="J264" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9636,14 +9464,12 @@
         <v>-4223456.254617052</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>10.7</v>
       </c>
-      <c r="J265" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9677,14 +9503,12 @@
         <v>-4282125.977317052</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>10.7</v>
       </c>
-      <c r="J266" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9718,14 +9542,10 @@
         <v>-4282125.977317052</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
-      </c>
-      <c r="I267" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="J267" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9759,14 +9579,10 @@
         <v>-4282125.977317052</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
-      </c>
-      <c r="I268" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="J268" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9800,14 +9616,10 @@
         <v>-4282125.977317052</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
-      </c>
-      <c r="I269" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="J269" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9841,14 +9653,10 @@
         <v>-4282125.977317052</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
-      </c>
-      <c r="I270" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="J270" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9882,14 +9690,12 @@
         <v>-4282125.977317052</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>10.6</v>
       </c>
-      <c r="J271" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9923,14 +9729,12 @@
         <v>-4254390.183017052</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>10.6</v>
       </c>
-      <c r="J272" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9964,14 +9768,10 @@
         <v>-4254390.183017052</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
-      </c>
-      <c r="I273" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="J273" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10005,14 +9805,10 @@
         <v>-4199456.713417051</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
-      </c>
-      <c r="I274" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="J274" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10046,14 +9842,10 @@
         <v>-4199456.713417051</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
-      </c>
-      <c r="I275" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="J275" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10090,9 +9882,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10129,9 +9919,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10168,9 +9956,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10207,9 +9993,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10243,12 +10027,12 @@
         <v>-4507815.354617051</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10282,14 +10066,12 @@
         <v>-4470088.47271705</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>10.4</v>
       </c>
-      <c r="J281" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10323,14 +10105,12 @@
         <v>-4449321.080017051</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>10.5</v>
       </c>
-      <c r="J282" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10364,14 +10144,12 @@
         <v>-4182046.58468861</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283" t="n">
         <v>10.8</v>
       </c>
-      <c r="J283" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10405,12 +10183,12 @@
         <v>-4182046.58468861</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10444,14 +10222,12 @@
         <v>-4212252.934517051</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I285" t="n">
         <v>10.9</v>
       </c>
-      <c r="J285" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10485,12 +10261,12 @@
         <v>-4212252.934517051</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10524,14 +10300,12 @@
         <v>-3875387.197117051</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287" t="n">
         <v>10.7</v>
       </c>
-      <c r="J287" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10565,14 +10339,12 @@
         <v>-3827197.312517051</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288" t="n">
         <v>10.9</v>
       </c>
-      <c r="J288" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10606,14 +10378,12 @@
         <v>-3939160.704217051</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I289" t="n">
         <v>11</v>
       </c>
-      <c r="J289" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10647,14 +10417,12 @@
         <v>-3939160.704217051</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I290" t="n">
         <v>10.9</v>
       </c>
-      <c r="J290" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10691,9 +10459,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10730,9 +10496,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10769,9 +10533,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10808,9 +10570,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10847,9 +10607,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10886,9 +10644,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10925,9 +10681,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10964,9 +10718,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11003,9 +10755,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11042,9 +10792,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11081,9 +10829,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11120,9 +10866,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11159,9 +10903,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11195,12 +10937,12 @@
         <v>-4561179.735117051</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11234,12 +10976,12 @@
         <v>-2432686.952517051</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11276,9 +11018,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11315,9 +11055,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11354,9 +11092,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11393,9 +11129,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11432,9 +11166,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11471,9 +11203,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11510,9 +11240,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11549,9 +11277,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11588,9 +11314,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11627,9 +11351,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11666,9 +11388,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11705,9 +11425,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11744,9 +11462,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11783,9 +11499,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11822,9 +11536,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11861,9 +11573,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11900,9 +11610,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11939,9 +11647,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11978,9 +11684,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12017,9 +11721,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12056,9 +11758,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12095,9 +11795,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12134,9 +11832,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12173,9 +11869,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12212,9 +11906,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12251,9 +11943,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12290,9 +11980,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12329,9 +12017,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12368,9 +12054,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12407,9 +12091,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12446,9 +12128,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12485,9 +12165,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12524,9 +12202,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12563,9 +12239,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12602,9 +12276,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12641,9 +12313,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12680,9 +12350,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12719,9 +12387,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12758,9 +12424,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12797,9 +12461,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12836,9 +12498,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12875,9 +12535,7 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12914,9 +12572,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12953,9 +12609,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12992,9 +12646,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13031,9 +12683,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13070,9 +12720,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13109,9 +12757,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13148,9 +12794,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13187,9 +12831,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13226,9 +12868,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13265,9 +12905,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13304,9 +12942,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13343,9 +12979,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13382,9 +13016,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13418,12 +13050,12 @@
         <v>-5702471.859817051</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13457,12 +13089,12 @@
         <v>-5702471.859817051</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13496,12 +13128,12 @@
         <v>-5702471.859817051</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13535,12 +13167,12 @@
         <v>-5702471.859817051</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13574,14 +13206,12 @@
         <v>-5702471.859817051</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I365" t="n">
         <v>10.5</v>
       </c>
-      <c r="J365" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13615,14 +13245,12 @@
         <v>-5702471.859817051</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I366" t="n">
         <v>10.5</v>
       </c>
-      <c r="J366" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13656,14 +13284,12 @@
         <v>-5702471.859817051</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I367" t="n">
         <v>10.5</v>
       </c>
-      <c r="J367" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13697,14 +13323,12 @@
         <v>-5702461.859817051</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I368" t="n">
         <v>10.5</v>
       </c>
-      <c r="J368" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13738,14 +13362,12 @@
         <v>-5781436.403717051</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I369" t="n">
         <v>10.6</v>
       </c>
-      <c r="J369" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13779,14 +13401,12 @@
         <v>-5985785.935117051</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I370" t="n">
         <v>10.4</v>
       </c>
-      <c r="J370" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13820,14 +13440,12 @@
         <v>-5985735.985117051</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I371" t="n">
         <v>10.3</v>
       </c>
-      <c r="J371" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13861,14 +13479,12 @@
         <v>-5902029.758717051</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I372" t="n">
         <v>10.5</v>
       </c>
-      <c r="J372" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13902,14 +13518,12 @@
         <v>-5902029.758717051</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I373" t="n">
         <v>10.6</v>
       </c>
-      <c r="J373" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13943,12 +13557,12 @@
         <v>-5902029.758717051</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
         <v>10.6</v>
       </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13982,14 +13596,12 @@
         <v>-5902029.758717051</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I375" t="n">
         <v>10.6</v>
       </c>
-      <c r="J375" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14023,12 +13635,12 @@
         <v>-6334610.73151705</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
         <v>10.6</v>
       </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14062,14 +13674,12 @@
         <v>-6334610.73151705</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I377" t="n">
         <v>10.5</v>
       </c>
-      <c r="J377" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14103,14 +13713,12 @@
         <v>-6275485.018017051</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I378" t="n">
         <v>10.5</v>
       </c>
-      <c r="J378" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14144,14 +13752,12 @@
         <v>-6275475.018017051</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I379" t="n">
         <v>10.6</v>
       </c>
-      <c r="J379" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14185,14 +13791,12 @@
         <v>-6291601.993117051</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I380" t="n">
         <v>10.7</v>
       </c>
-      <c r="J380" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14226,14 +13830,12 @@
         <v>-6340494.368217051</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I381" t="n">
         <v>10.6</v>
       </c>
-      <c r="J381" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14267,14 +13869,12 @@
         <v>-6340494.368217051</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I382" t="n">
         <v>10.5</v>
       </c>
-      <c r="J382" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14308,14 +13908,12 @@
         <v>-6340484.368217051</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I383" t="n">
         <v>10.5</v>
       </c>
-      <c r="J383" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14349,14 +13947,12 @@
         <v>-6414713.556717051</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I384" t="n">
         <v>10.7</v>
       </c>
-      <c r="J384" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14390,12 +13986,12 @@
         <v>-6414713.556717051</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
         <v>10.6</v>
       </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14429,12 +14025,12 @@
         <v>-6210839.855595556</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
         <v>10.6</v>
       </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14468,12 +14064,12 @@
         <v>-6210839.855595556</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14510,9 +14106,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14549,9 +14143,7 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14588,9 +14180,7 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14627,9 +14217,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14666,9 +14254,7 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14705,9 +14291,7 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14741,14 +14325,10 @@
         <v>-6197215.448795556</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
-      </c>
-      <c r="I394" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="J394" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14785,9 +14365,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14821,12 +14399,12 @@
         <v>-6197215.448795556</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14860,12 +14438,12 @@
         <v>-6197215.448795556</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14899,12 +14477,12 @@
         <v>-6240718.618795556</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14938,12 +14516,12 @@
         <v>-6238623.111495556</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
         <v>10.6</v>
       </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14977,14 +14555,12 @@
         <v>-6240080.111495556</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I400" t="n">
         <v>10.7</v>
       </c>
-      <c r="J400" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15018,14 +14594,12 @@
         <v>-6240080.111495556</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I401" t="n">
         <v>10.6</v>
       </c>
-      <c r="J401" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15059,14 +14633,12 @@
         <v>-6240080.111495556</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I402" t="n">
         <v>10.6</v>
       </c>
-      <c r="J402" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15100,14 +14672,12 @@
         <v>-6240080.111495556</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I403" t="n">
         <v>10.6</v>
       </c>
-      <c r="J403" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15141,14 +14711,12 @@
         <v>-6240080.111495556</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I404" t="n">
         <v>10.6</v>
       </c>
-      <c r="J404" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15182,14 +14750,12 @@
         <v>-6244482.862095556</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I405" t="n">
         <v>10.6</v>
       </c>
-      <c r="J405" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15223,14 +14789,12 @@
         <v>-6207847.348095556</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I406" t="n">
         <v>10.4</v>
       </c>
-      <c r="J406" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15264,14 +14828,12 @@
         <v>-6206925.655295555</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I407" t="n">
         <v>10.5</v>
       </c>
-      <c r="J407" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15305,14 +14867,12 @@
         <v>-6192938.435695555</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I408" t="n">
         <v>10.6</v>
       </c>
-      <c r="J408" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15346,14 +14906,12 @@
         <v>-6192938.435695555</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I409" t="n">
         <v>10.7</v>
       </c>
-      <c r="J409" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15387,14 +14945,12 @@
         <v>-6192938.435695555</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I410" t="n">
         <v>10.7</v>
       </c>
-      <c r="J410" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15428,14 +14984,12 @@
         <v>-6192938.435695555</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I411" t="n">
         <v>10.7</v>
       </c>
-      <c r="J411" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15469,14 +15023,12 @@
         <v>-6192938.435695555</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I412" t="n">
         <v>10.7</v>
       </c>
-      <c r="J412" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15510,14 +15062,12 @@
         <v>-6192938.435695555</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I413" t="n">
         <v>10.7</v>
       </c>
-      <c r="J413" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15551,14 +15101,12 @@
         <v>-6192938.435695555</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I414" t="n">
         <v>10.7</v>
       </c>
-      <c r="J414" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15592,14 +15140,12 @@
         <v>-6191968.794295555</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I415" t="n">
         <v>10.7</v>
       </c>
-      <c r="J415" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15633,14 +15179,12 @@
         <v>-6191968.794295555</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I416" t="n">
         <v>10.8</v>
       </c>
-      <c r="J416" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15674,14 +15218,12 @@
         <v>-6179786.775995555</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I417" t="n">
         <v>10.8</v>
       </c>
-      <c r="J417" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15715,14 +15257,10 @@
         <v>-6179786.775995555</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
-      </c>
-      <c r="I418" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="J418" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15756,14 +15294,10 @@
         <v>-6179786.775995555</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
-      </c>
-      <c r="I419" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="J419" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15797,14 +15331,12 @@
         <v>-6173718.392095556</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I420" t="n">
         <v>10.9</v>
       </c>
-      <c r="J420" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15838,14 +15370,10 @@
         <v>-6163718.392095556</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
-      </c>
-      <c r="I421" t="n">
-        <v>11</v>
-      </c>
-      <c r="J421" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15879,14 +15407,10 @@
         <v>-5813616.781595555</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
-      </c>
-      <c r="I422" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="J422" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15923,9 +15447,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15959,14 +15481,10 @@
         <v>-5708804.717695555</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
-      </c>
-      <c r="I424" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="J424" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16003,9 +15521,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16042,9 +15558,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16081,9 +15595,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16120,9 +15632,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16159,9 +15669,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16195,12 +15703,10 @@
         <v>-4722200.915795553</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16234,12 +15740,10 @@
         <v>-4722200.915795553</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16273,12 +15777,10 @@
         <v>-4869453.503195553</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16315,9 +15817,7 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16351,12 +15851,10 @@
         <v>-4748917.389795553</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16390,12 +15888,10 @@
         <v>-4997768.705895553</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16429,12 +15925,10 @@
         <v>-4997768.705895553</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16471,9 +15965,7 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16510,9 +16002,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16549,9 +16039,7 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16585,12 +16073,12 @@
         <v>-5210583.117895553</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16624,12 +16112,12 @@
         <v>-5210583.117895553</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16663,12 +16151,12 @@
         <v>-5210583.117895553</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16702,12 +16190,12 @@
         <v>-5202134.278195553</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16741,12 +16229,12 @@
         <v>-5219273.764695552</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16780,12 +16268,12 @@
         <v>-5319883.106295552</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16819,12 +16307,12 @@
         <v>-5311783.691195552</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16858,12 +16346,12 @@
         <v>-5311683.691195552</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16897,12 +16385,12 @@
         <v>-5441497.459095553</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16936,12 +16424,12 @@
         <v>-4741781.298395553</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>11</v>
+      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16975,12 +16463,12 @@
         <v>-4737660.716795553</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17014,12 +16502,12 @@
         <v>-4737660.716795553</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17053,12 +16541,12 @@
         <v>-4746360.716795553</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17092,12 +16580,12 @@
         <v>-4718914.389395553</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17131,12 +16619,12 @@
         <v>-4754649.813495553</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17170,12 +16658,12 @@
         <v>-4754649.813495553</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17209,12 +16697,12 @@
         <v>-4789244.407495553</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17248,12 +16736,12 @@
         <v>-4648634.509595552</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17287,12 +16775,12 @@
         <v>-4648634.509595552</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17326,12 +16814,12 @@
         <v>-4735544.527295552</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17365,12 +16853,12 @@
         <v>-4235544.527295552</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17404,12 +16892,12 @@
         <v>-4235544.527295552</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17443,12 +16931,12 @@
         <v>-4235544.527295552</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17482,12 +16970,12 @@
         <v>-4162137.175695552</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17521,12 +17009,12 @@
         <v>-4005460.251395552</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>10.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17563,9 +17051,7 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17602,9 +17088,7 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17641,9 +17125,7 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17680,9 +17162,7 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17719,9 +17199,7 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17758,9 +17236,7 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17797,9 +17273,7 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17836,9 +17310,7 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17875,9 +17347,7 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17914,9 +17384,7 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17953,9 +17421,7 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17992,9 +17458,7 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18028,23 +17492,19 @@
         <v>-2751768.282195552</v>
       </c>
       <c r="H477" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L477" t="n">
-        <v>1.127075471698113</v>
-      </c>
-      <c r="M477" t="n">
-        <v>1.19047619047619</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
@@ -18069,11 +17529,15 @@
         <v>-2716295.802895552</v>
       </c>
       <c r="H478" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18106,7 +17570,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18135,11 +17603,15 @@
         <v>-3613467.617395552</v>
       </c>
       <c r="H480" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18168,11 +17640,15 @@
         <v>-3460625.799295552</v>
       </c>
       <c r="H481" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18201,11 +17677,15 @@
         <v>-3460625.799295552</v>
       </c>
       <c r="H482" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18234,11 +17714,15 @@
         <v>-3460625.799295552</v>
       </c>
       <c r="H483" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18267,11 +17751,15 @@
         <v>-3460625.799295552</v>
       </c>
       <c r="H484" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18300,11 +17788,15 @@
         <v>-3460625.799295552</v>
       </c>
       <c r="H485" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18333,11 +17825,15 @@
         <v>-3597637.983961668</v>
       </c>
       <c r="H486" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18366,11 +17862,15 @@
         <v>-3597637.983961668</v>
       </c>
       <c r="H487" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18399,11 +17899,15 @@
         <v>-4460876.374961668</v>
       </c>
       <c r="H488" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18432,11 +17936,15 @@
         <v>-4460876.374961668</v>
       </c>
       <c r="H489" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18465,11 +17973,15 @@
         <v>-4387383.291661668</v>
       </c>
       <c r="H490" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18502,7 +18014,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18531,11 +18047,15 @@
         <v>-4412086.420361668</v>
       </c>
       <c r="H492" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18568,7 +18088,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18597,11 +18121,15 @@
         <v>-4412086.420361668</v>
       </c>
       <c r="H494" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18634,7 +18162,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18667,7 +18199,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18700,7 +18236,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18733,7 +18273,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18766,7 +18310,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18795,11 +18343,15 @@
         <v>-4401274.034161668</v>
       </c>
       <c r="H500" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18832,7 +18384,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18865,7 +18421,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18898,7 +18458,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18931,7 +18495,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18964,7 +18532,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18997,7 +18569,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -19030,7 +18606,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19063,7 +18643,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19096,7 +18680,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19129,7 +18717,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19162,7 +18754,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19195,7 +18791,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19228,7 +18828,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19261,7 +18865,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19294,7 +18902,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19327,7 +18939,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19360,7 +18976,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19393,7 +19013,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19426,7 +19050,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19459,7 +19087,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19492,7 +19124,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19525,7 +19161,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19558,7 +19198,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19591,7 +19235,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19624,7 +19272,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19657,7 +19309,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19690,7 +19346,11 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19723,7 +19383,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19756,7 +19420,11 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19789,7 +19457,11 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19822,7 +19494,11 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19855,7 +19531,11 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19888,7 +19568,11 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19921,7 +19605,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19954,7 +19642,11 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19987,7 +19679,11 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -20020,7 +19716,11 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -20053,7 +19753,11 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -20086,7 +19790,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -20119,7 +19827,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -20152,7 +19864,11 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -20185,7 +19901,11 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -20218,7 +19938,11 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -20251,7 +19975,11 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -20284,7 +20012,11 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20317,7 +20049,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20350,7 +20086,11 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20383,7 +20123,11 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -20416,7 +20160,11 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -20449,7 +20197,11 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -20482,7 +20234,11 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -20515,7 +20271,11 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -20548,7 +20308,11 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -20581,7 +20345,11 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -20614,7 +20382,11 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -20647,7 +20419,11 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -20680,7 +20456,11 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -20713,7 +20493,11 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -20746,7 +20530,11 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -20779,7 +20567,11 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -20812,7 +20604,11 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -20845,7 +20641,11 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -20878,7 +20678,11 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20911,7 +20715,11 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20944,7 +20752,11 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20977,7 +20789,11 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -21010,7 +20826,11 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -21043,7 +20863,11 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -21076,7 +20900,11 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -21109,7 +20937,11 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -21142,7 +20974,11 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -21175,7 +21011,11 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -21208,7 +21048,11 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -21241,7 +21085,11 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -21274,7 +21122,11 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -21307,7 +21159,11 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -21336,11 +21192,15 @@
         <v>-4978741.178136881</v>
       </c>
       <c r="H577" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -21369,11 +21229,15 @@
         <v>-4978741.178136881</v>
       </c>
       <c r="H578" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -21402,11 +21266,15 @@
         <v>-4508429.133936881</v>
       </c>
       <c r="H579" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -21435,11 +21303,15 @@
         <v>-4508429.133936881</v>
       </c>
       <c r="H580" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -21468,11 +21340,15 @@
         <v>-4508429.133936881</v>
       </c>
       <c r="H581" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -21501,11 +21377,15 @@
         <v>-3666834.583736881</v>
       </c>
       <c r="H582" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -21534,11 +21414,15 @@
         <v>-3946377.146736881</v>
       </c>
       <c r="H583" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -21567,11 +21451,15 @@
         <v>-4752695.243277531</v>
       </c>
       <c r="H584" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -21600,11 +21488,15 @@
         <v>-4752673.243277531</v>
       </c>
       <c r="H585" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -21637,7 +21529,11 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -21670,7 +21566,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -21699,11 +21599,15 @@
         <v>-5143630.615177531</v>
       </c>
       <c r="H588" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -21732,11 +21636,15 @@
         <v>-5143630.615177531</v>
       </c>
       <c r="H589" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -21765,11 +21673,15 @@
         <v>-5143630.615177531</v>
       </c>
       <c r="H590" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -21798,11 +21710,15 @@
         <v>-5143630.615177531</v>
       </c>
       <c r="H591" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -21831,11 +21747,15 @@
         <v>-5143630.615177531</v>
       </c>
       <c r="H592" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -21864,11 +21784,15 @@
         <v>-4815553.071135595</v>
       </c>
       <c r="H593" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21897,11 +21821,15 @@
         <v>-4815553.071135595</v>
       </c>
       <c r="H594" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21930,11 +21858,15 @@
         <v>-4836717.829135596</v>
       </c>
       <c r="H595" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21963,11 +21895,15 @@
         <v>-4926336.226835595</v>
       </c>
       <c r="H596" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21996,11 +21932,15 @@
         <v>-4926336.226835595</v>
       </c>
       <c r="H597" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -22029,11 +21969,15 @@
         <v>-4926336.226835595</v>
       </c>
       <c r="H598" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -22062,11 +22006,15 @@
         <v>-4926336.226835595</v>
       </c>
       <c r="H599" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -22095,11 +22043,15 @@
         <v>-4926326.226835595</v>
       </c>
       <c r="H600" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -22128,11 +22080,15 @@
         <v>-4926326.226835595</v>
       </c>
       <c r="H601" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -22161,11 +22117,15 @@
         <v>-4926326.226835595</v>
       </c>
       <c r="H602" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -22198,7 +22158,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -22227,11 +22191,15 @@
         <v>-4926326.226835595</v>
       </c>
       <c r="H604" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -22264,7 +22232,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -22297,7 +22269,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -22330,7 +22306,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -22359,11 +22339,15 @@
         <v>-4043617.230930127</v>
       </c>
       <c r="H608" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -22392,11 +22376,15 @@
         <v>-4015715.473130127</v>
       </c>
       <c r="H609" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -22425,14 +22413,16 @@
         <v>-4221511.466130127</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
-      <c r="L610" t="n">
-        <v>1</v>
-      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L610" t="inlineStr"/>
       <c r="M610" t="inlineStr"/>
     </row>
     <row r="611">
@@ -22458,7 +22448,7 @@
         <v>-4221511.466130127</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -22491,7 +22481,7 @@
         <v>-4251700.959530127</v>
       </c>
       <c r="H612" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -22524,7 +22514,7 @@
         <v>-4171562.546930127</v>
       </c>
       <c r="H613" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -22557,7 +22547,7 @@
         <v>-4171562.546930127</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -22590,7 +22580,7 @@
         <v>-5020411.666930127</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -22623,7 +22613,7 @@
         <v>-5044545.466730127</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -22656,7 +22646,7 @@
         <v>-4995120.269230127</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -22689,7 +22679,7 @@
         <v>-5133438.887330127</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -22722,7 +22712,7 @@
         <v>-5108256.168630127</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -22755,7 +22745,7 @@
         <v>-5550540.533730127</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -22788,7 +22778,7 @@
         <v>-5550540.533730127</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -22821,7 +22811,7 @@
         <v>-5425452.624830127</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -22854,7 +22844,7 @@
         <v>-5682427.546630126</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -22887,7 +22877,7 @@
         <v>-5609357.647130126</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -22920,7 +22910,7 @@
         <v>-5609357.647130126</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -22953,7 +22943,7 @@
         <v>-5609357.647130126</v>
       </c>
       <c r="H626" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -22986,7 +22976,7 @@
         <v>-5609357.647130126</v>
       </c>
       <c r="H627" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -23019,7 +23009,7 @@
         <v>-5689295.713730126</v>
       </c>
       <c r="H628" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -23052,7 +23042,7 @@
         <v>-5607831.398230126</v>
       </c>
       <c r="H629" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -23085,7 +23075,7 @@
         <v>-5298447.856430126</v>
       </c>
       <c r="H630" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -23118,7 +23108,7 @@
         <v>-6151737.935730127</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -23151,7 +23141,7 @@
         <v>-6129944.442230127</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -23184,7 +23174,7 @@
         <v>-6330690.143530127</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -23217,7 +23207,7 @@
         <v>-6330690.143530127</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -23250,7 +23240,7 @@
         <v>-6392287.796730126</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -23283,7 +23273,7 @@
         <v>-6371036.983730126</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -23316,7 +23306,7 @@
         <v>-6371036.983730126</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -23349,7 +23339,7 @@
         <v>-6480243.879330127</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -23382,7 +23372,7 @@
         <v>-6480243.879330127</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -23415,7 +23405,7 @@
         <v>-6480233.879330127</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -23448,7 +23438,7 @@
         <v>-6567143.897030126</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -23481,7 +23471,7 @@
         <v>-6567143.897030126</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -23514,7 +23504,7 @@
         <v>-6567143.897030126</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -23547,7 +23537,7 @@
         <v>-6567143.897030126</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -23580,7 +23570,7 @@
         <v>-6567143.897030126</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -23613,7 +23603,7 @@
         <v>-6491098.693830126</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -23646,7 +23636,7 @@
         <v>-6615017.565630126</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -25560,10 +25550,14 @@
         <v>-9110318.026097627</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
-      </c>
-      <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I705" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="J705" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
@@ -25593,11 +25587,19 @@
         <v>-9110318.026097627</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
-      </c>
-      <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I706" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="J706" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -25626,11 +25628,19 @@
         <v>-9110318.026097627</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I707" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="J707" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -25659,10 +25669,14 @@
         <v>-9110318.026097627</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="J708" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
@@ -25692,11 +25706,19 @@
         <v>-9110318.026097627</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="J709" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -25728,8 +25750,14 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -25761,8 +25789,14 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -25791,11 +25825,19 @@
         <v>-10564327.76479763</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
-      </c>
-      <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I712" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J712" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -25824,11 +25866,19 @@
         <v>-10564327.76479763</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
-      </c>
-      <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I713" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J713" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -25857,11 +25907,19 @@
         <v>-10564327.76479763</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
-      </c>
-      <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I714" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J714" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -25890,11 +25948,19 @@
         <v>-10564327.76479763</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I715" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J715" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -25923,11 +25989,19 @@
         <v>-10564327.76479763</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I716" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J716" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -25956,11 +26030,19 @@
         <v>-10464422.37349763</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J717" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -25989,11 +26071,19 @@
         <v>-10464422.37349763</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
-      </c>
-      <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I718" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J718" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -26022,11 +26112,19 @@
         <v>-10464322.37349763</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I719" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J719" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -26058,8 +26156,14 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -26091,8 +26195,14 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -26124,8 +26234,14 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -26157,8 +26273,14 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -26190,8 +26312,14 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -26220,11 +26348,19 @@
         <v>-10679305.12889763</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
-      </c>
-      <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I725" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J725" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -26253,11 +26389,19 @@
         <v>-10711413.67689763</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
-      </c>
-      <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I726" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J726" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -26286,11 +26430,19 @@
         <v>-10822162.12049763</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
-      </c>
-      <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I727" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="J727" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -26319,11 +26471,19 @@
         <v>-10770815.71529763</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
-      </c>
-      <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I728" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J728" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -26352,11 +26512,19 @@
         <v>-10750411.89059763</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
-      </c>
-      <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I729" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="J729" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -26385,11 +26553,19 @@
         <v>-10777340.87489763</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
-      </c>
-      <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I730" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J730" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -26418,11 +26594,19 @@
         <v>-10772370.96039763</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
-      </c>
-      <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I731" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J731" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -26454,8 +26638,14 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -26487,8 +26677,14 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="J733" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -26520,8 +26716,14 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -26550,11 +26752,19 @@
         <v>-10939660.18209763</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I735" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J735" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -26583,11 +26793,19 @@
         <v>-10939660.18209763</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I736" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="J736" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -26616,11 +26834,19 @@
         <v>-10919660.18209763</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I737" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="J737" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -26649,11 +26875,19 @@
         <v>-11138814.60809763</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I738" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J738" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -26682,11 +26916,19 @@
         <v>-11138728.19789763</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="J739" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -26715,11 +26957,19 @@
         <v>-11168728.19789763</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J740" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -26748,11 +26998,19 @@
         <v>-11158594.71929763</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="J741" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -26784,8 +27042,14 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -26814,11 +27078,19 @@
         <v>-11541019.25239763</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I743" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="J743" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -26847,11 +27119,19 @@
         <v>-11541019.25239763</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J744" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -26880,11 +27160,19 @@
         <v>-11541019.25239763</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
-      </c>
-      <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I745" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J745" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -26913,11 +27201,19 @@
         <v>-11559104.59129763</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
-      </c>
-      <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I746" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J746" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -26946,11 +27242,19 @@
         <v>-11516066.27932372</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
-      </c>
-      <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I747" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J747" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -26979,17 +27283,25 @@
         <v>-11516066.27932372</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I748" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J748" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
       <c r="M748" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest DVP.xlsx
+++ b/BackTest/2019-10-28 BackTest DVP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -946,7 +946,7 @@
         <v>8600007.235463386</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>8600007.235463386</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>6514079.792663386</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>6514079.792663386</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>7352277.421463386</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>4230259.519763387</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>4128839.097563387</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>4128839.097563387</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>3759201.985863387</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>4008347.003063387</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>4008347.003063387</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>4064554.538363387</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>4057117.939963387</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>3965671.547963387</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>4142481.119363387</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>4142481.119363387</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>4142481.119363387</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>3692997.488763387</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>3692997.488763387</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -6820,17 +6820,11 @@
         <v>-2475467.808226702</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6859,17 +6853,11 @@
         <v>-2692146.036626702</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>10.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6898,17 +6886,11 @@
         <v>-2692146.036626702</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6937,17 +6919,11 @@
         <v>-2692146.036626702</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6976,17 +6952,11 @@
         <v>-2663066.410526702</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7015,17 +6985,11 @@
         <v>-2589015.215126702</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>10.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7054,17 +7018,11 @@
         <v>-1633982.991526702</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>10.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7097,11 +7055,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7130,17 +7084,11 @@
         <v>-1435522.774626702</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7169,17 +7117,11 @@
         <v>-1408685.281726702</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>10.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7212,11 +7154,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7249,11 +7187,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7286,11 +7220,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7323,11 +7253,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7360,11 +7286,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7397,11 +7319,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7434,11 +7352,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7471,11 +7385,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7508,11 +7418,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7545,11 +7451,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7582,11 +7484,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7619,11 +7517,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7652,17 +7546,11 @@
         <v>-1629095.251740416</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>10.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7695,11 +7583,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7728,17 +7612,11 @@
         <v>-1629095.251740416</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>10.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7767,17 +7645,11 @@
         <v>-1629095.251740416</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>10.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7810,11 +7682,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7847,11 +7715,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7884,11 +7748,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7921,11 +7781,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7958,11 +7814,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7995,11 +7847,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8032,11 +7880,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8069,11 +7913,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8106,11 +7946,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8143,11 +7979,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8180,11 +8012,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8217,11 +8045,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8254,11 +8078,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8291,11 +8111,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8328,11 +8144,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8365,11 +8177,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8402,11 +8210,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8439,11 +8243,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8472,17 +8272,11 @@
         <v>-3293021.160817052</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>10.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8511,17 +8305,11 @@
         <v>-3293021.160817052</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>10.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8550,17 +8338,11 @@
         <v>-3282202.341917052</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>10.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8589,17 +8371,11 @@
         <v>-3282202.341917052</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8628,17 +8404,11 @@
         <v>-3258221.500817052</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8671,11 +8441,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8704,17 +8470,11 @@
         <v>-3430628.659817052</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>10.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8743,17 +8503,11 @@
         <v>-3423148.177317052</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8782,17 +8536,11 @@
         <v>-3406750.233517052</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8825,11 +8573,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8862,11 +8606,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8899,11 +8639,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8936,11 +8672,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8973,11 +8705,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9006,17 +8734,11 @@
         <v>-3407892.975717052</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9049,11 +8771,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9082,17 +8800,11 @@
         <v>-4006524.863417052</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9121,17 +8833,11 @@
         <v>-4188912.774817052</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9160,17 +8866,11 @@
         <v>-4155176.204417052</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>10.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9203,11 +8903,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9236,17 +8932,11 @@
         <v>-4149176.204417052</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9279,11 +8969,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9316,11 +9002,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9349,17 +9031,11 @@
         <v>-4149176.204417052</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9388,17 +9064,11 @@
         <v>-4227867.002217053</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9431,11 +9101,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9464,17 +9130,11 @@
         <v>-4223456.254617052</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>10.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9503,17 +9163,11 @@
         <v>-4282125.977317052</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>10.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9546,11 +9200,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9583,11 +9233,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9620,11 +9266,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9657,11 +9299,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9690,17 +9328,11 @@
         <v>-4282125.977317052</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9729,17 +9361,11 @@
         <v>-4254390.183017052</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9772,11 +9398,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9809,11 +9431,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9846,11 +9464,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9883,11 +9497,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9920,11 +9530,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9957,11 +9563,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9994,11 +9596,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10027,17 +9625,11 @@
         <v>-4507815.354617051</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10066,17 +9658,11 @@
         <v>-4470088.47271705</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>10.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10105,17 +9691,11 @@
         <v>-4449321.080017051</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10144,17 +9724,11 @@
         <v>-4182046.58468861</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>10.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10183,17 +9757,11 @@
         <v>-4182046.58468861</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>10.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10222,17 +9790,11 @@
         <v>-4212252.934517051</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>10.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10261,17 +9823,11 @@
         <v>-4212252.934517051</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>10.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10300,17 +9856,11 @@
         <v>-3875387.197117051</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>10.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10339,17 +9889,11 @@
         <v>-3827197.312517051</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>10.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10378,17 +9922,11 @@
         <v>-3939160.704217051</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10417,17 +9955,11 @@
         <v>-3939160.704217051</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>10.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10460,11 +9992,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10497,11 +10025,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10534,11 +10058,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10571,11 +10091,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10608,11 +10124,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10645,11 +10157,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10682,11 +10190,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10719,11 +10223,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10756,11 +10256,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10793,11 +10289,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10830,11 +10322,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10867,11 +10355,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10904,11 +10388,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10937,17 +10417,11 @@
         <v>-4561179.735117051</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>10.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10976,17 +10450,11 @@
         <v>-2432686.952517051</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>10.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11019,11 +10487,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11056,11 +10520,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11093,11 +10553,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11130,11 +10586,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11167,11 +10619,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11204,11 +10652,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11241,11 +10685,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11278,11 +10718,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11315,11 +10751,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11352,11 +10784,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11389,11 +10817,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11426,11 +10850,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11463,11 +10883,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11500,11 +10916,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11537,11 +10949,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11574,11 +10982,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11611,11 +11015,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11648,11 +11048,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11685,11 +11081,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11722,11 +11114,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11759,11 +11147,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11796,11 +11180,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11833,11 +11213,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11870,11 +11246,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11907,11 +11279,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11944,11 +11312,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11981,11 +11345,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12018,11 +11378,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12055,11 +11411,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12092,11 +11444,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12129,11 +11477,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12166,11 +11510,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12203,11 +11543,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12240,11 +11576,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12277,11 +11609,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12314,11 +11642,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12351,11 +11675,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12388,11 +11708,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12425,11 +11741,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12462,11 +11774,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12499,11 +11807,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12536,11 +11840,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12573,11 +11873,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12610,11 +11906,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12647,11 +11939,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12684,11 +11972,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12721,11 +12005,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12758,11 +12038,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12795,11 +12071,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12832,11 +12104,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12869,11 +12137,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12906,11 +12170,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12943,11 +12203,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12980,11 +12236,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13017,11 +12269,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13050,17 +12298,11 @@
         <v>-5702471.859817051</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13089,17 +12331,11 @@
         <v>-5702471.859817051</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13128,17 +12364,11 @@
         <v>-5702471.859817051</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13167,17 +12397,11 @@
         <v>-5702471.859817051</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13206,17 +12430,11 @@
         <v>-5702471.859817051</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13245,17 +12463,11 @@
         <v>-5702471.859817051</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13284,17 +12496,11 @@
         <v>-5702471.859817051</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13323,17 +12529,11 @@
         <v>-5702461.859817051</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
-      </c>
-      <c r="I368" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13362,17 +12562,11 @@
         <v>-5781436.403717051</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
-      </c>
-      <c r="I369" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13401,17 +12595,11 @@
         <v>-5985785.935117051</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
-      </c>
-      <c r="I370" t="n">
-        <v>10.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13440,17 +12628,11 @@
         <v>-5985735.985117051</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
-      </c>
-      <c r="I371" t="n">
-        <v>10.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13479,17 +12661,11 @@
         <v>-5902029.758717051</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
-      </c>
-      <c r="I372" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13518,17 +12694,11 @@
         <v>-5902029.758717051</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13557,17 +12727,11 @@
         <v>-5902029.758717051</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13596,17 +12760,11 @@
         <v>-5902029.758717051</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13635,17 +12793,11 @@
         <v>-6334610.73151705</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13674,17 +12826,11 @@
         <v>-6334610.73151705</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
-      </c>
-      <c r="I377" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13713,17 +12859,11 @@
         <v>-6275485.018017051</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
-      </c>
-      <c r="I378" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13752,17 +12892,11 @@
         <v>-6275475.018017051</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13791,17 +12925,11 @@
         <v>-6291601.993117051</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
-      </c>
-      <c r="I380" t="n">
-        <v>10.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13830,17 +12958,11 @@
         <v>-6340494.368217051</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
-      </c>
-      <c r="I381" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13869,17 +12991,11 @@
         <v>-6340494.368217051</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
-      </c>
-      <c r="I382" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13908,17 +13024,11 @@
         <v>-6340484.368217051</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
-      </c>
-      <c r="I383" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13947,17 +13057,11 @@
         <v>-6414713.556717051</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
-      </c>
-      <c r="I384" t="n">
-        <v>10.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13986,17 +13090,11 @@
         <v>-6414713.556717051</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
-      </c>
-      <c r="I385" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14025,17 +13123,11 @@
         <v>-6210839.855595556</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
-      </c>
-      <c r="I386" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14064,17 +13156,11 @@
         <v>-6210839.855595556</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
-      </c>
-      <c r="I387" t="n">
-        <v>10.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14107,11 +13193,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14144,11 +13226,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14181,11 +13259,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14218,11 +13292,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14255,11 +13325,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14292,11 +13358,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14329,11 +13391,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14366,11 +13424,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14399,17 +13453,11 @@
         <v>-6197215.448795556</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
-      </c>
-      <c r="I396" t="n">
-        <v>10.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14438,17 +13486,11 @@
         <v>-6197215.448795556</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
-      </c>
-      <c r="I397" t="n">
-        <v>10.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14477,17 +13519,11 @@
         <v>-6240718.618795556</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
-        <v>10.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14516,17 +13552,11 @@
         <v>-6238623.111495556</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14555,17 +13585,11 @@
         <v>-6240080.111495556</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>10.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14594,17 +13618,11 @@
         <v>-6240080.111495556</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14633,17 +13651,11 @@
         <v>-6240080.111495556</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14672,17 +13684,11 @@
         <v>-6240080.111495556</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14711,17 +13717,11 @@
         <v>-6240080.111495556</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14755,12 +13755,10 @@
       <c r="I405" t="n">
         <v>10.6</v>
       </c>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14794,10 +13792,12 @@
       <c r="I406" t="n">
         <v>10.4</v>
       </c>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>10.6</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L406" t="n">
@@ -14833,10 +13833,12 @@
       <c r="I407" t="n">
         <v>10.5</v>
       </c>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>10.6</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L407" t="n">
@@ -14872,12 +13874,10 @@
       <c r="I408" t="n">
         <v>10.6</v>
       </c>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14911,10 +13911,12 @@
       <c r="I409" t="n">
         <v>10.7</v>
       </c>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>10.6</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L409" t="n">
@@ -14945,15 +13947,15 @@
         <v>-6192938.435695555</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
-      </c>
-      <c r="I410" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="J410" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>10.6</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L410" t="n">
@@ -14984,17 +13986,11 @@
         <v>-6192938.435695555</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
-      </c>
-      <c r="I411" t="n">
-        <v>10.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15028,12 +14024,10 @@
       <c r="I412" t="n">
         <v>10.7</v>
       </c>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15062,15 +14056,15 @@
         <v>-6192938.435695555</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
+      <c r="J413" t="n">
         <v>10.7</v>
       </c>
-      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L413" t="n">
@@ -15101,15 +14095,15 @@
         <v>-6192938.435695555</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
-      </c>
-      <c r="I414" t="n">
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
+      <c r="J414" t="n">
         <v>10.7</v>
       </c>
-      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L414" t="n">
@@ -15140,17 +14134,11 @@
         <v>-6191968.794295555</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>10.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15179,17 +14167,11 @@
         <v>-6191968.794295555</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
-        <v>10.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15218,17 +14200,11 @@
         <v>-6179786.775995555</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
-        <v>10.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15261,11 +14237,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15298,11 +14270,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15331,17 +14299,11 @@
         <v>-6173718.392095556</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
-        <v>10.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15374,11 +14336,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15411,11 +14369,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15448,11 +14402,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15485,11 +14435,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15522,11 +14468,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15559,11 +14501,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15596,11 +14534,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15633,11 +14567,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15666,15 +14596,11 @@
         <v>-4722200.915795553</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15707,11 +14633,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15740,15 +14662,11 @@
         <v>-4722200.915795553</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15777,15 +14695,11 @@
         <v>-4869453.503195553</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15814,15 +14728,11 @@
         <v>-4869453.503195553</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15855,11 +14765,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15892,11 +14798,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15929,11 +14831,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15966,11 +14864,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16003,11 +14897,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16040,11 +14930,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16073,17 +14959,11 @@
         <v>-5210583.117895553</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
-      </c>
-      <c r="I440" t="n">
-        <v>10.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16112,17 +14992,11 @@
         <v>-5210583.117895553</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
-      </c>
-      <c r="I441" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16151,17 +15025,11 @@
         <v>-5210583.117895553</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
-      </c>
-      <c r="I442" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16190,17 +15058,11 @@
         <v>-5202134.278195553</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
-      </c>
-      <c r="I443" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16229,17 +15091,11 @@
         <v>-5219273.764695552</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
-      </c>
-      <c r="I444" t="n">
-        <v>11.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16268,17 +15124,11 @@
         <v>-5319883.106295552</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
-      </c>
-      <c r="I445" t="n">
-        <v>11.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16307,17 +15157,11 @@
         <v>-5311783.691195552</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
-      </c>
-      <c r="I446" t="n">
-        <v>11.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16346,17 +15190,11 @@
         <v>-5311683.691195552</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
-      </c>
-      <c r="I447" t="n">
-        <v>11.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16385,17 +15223,11 @@
         <v>-5441497.459095553</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
-      </c>
-      <c r="I448" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16424,17 +15256,11 @@
         <v>-4741781.298395553</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
-      </c>
-      <c r="I449" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16463,17 +15289,11 @@
         <v>-4737660.716795553</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
-      </c>
-      <c r="I450" t="n">
-        <v>11.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16502,17 +15322,11 @@
         <v>-4737660.716795553</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
-      </c>
-      <c r="I451" t="n">
-        <v>11.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16541,17 +15355,11 @@
         <v>-4746360.716795553</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
-      </c>
-      <c r="I452" t="n">
-        <v>11.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16580,17 +15388,11 @@
         <v>-4718914.389395553</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
-      </c>
-      <c r="I453" t="n">
-        <v>11.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16619,17 +15421,11 @@
         <v>-4754649.813495553</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
-      </c>
-      <c r="I454" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16658,17 +15454,11 @@
         <v>-4754649.813495553</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
-      </c>
-      <c r="I455" t="n">
-        <v>11.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16697,17 +15487,11 @@
         <v>-4789244.407495553</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
-      </c>
-      <c r="I456" t="n">
-        <v>11.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16736,17 +15520,11 @@
         <v>-4648634.509595552</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
-      </c>
-      <c r="I457" t="n">
-        <v>11.1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16775,17 +15553,11 @@
         <v>-4648634.509595552</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
-      </c>
-      <c r="I458" t="n">
-        <v>11.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16814,17 +15586,11 @@
         <v>-4735544.527295552</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
-      </c>
-      <c r="I459" t="n">
-        <v>11.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16853,17 +15619,11 @@
         <v>-4235544.527295552</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
-      </c>
-      <c r="I460" t="n">
-        <v>11.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16892,17 +15652,11 @@
         <v>-4235544.527295552</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
-      </c>
-      <c r="I461" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16931,17 +15685,11 @@
         <v>-4235544.527295552</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
-      </c>
-      <c r="I462" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16970,17 +15718,11 @@
         <v>-4162137.175695552</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
-      </c>
-      <c r="I463" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17009,17 +15751,11 @@
         <v>-4005460.251395552</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
-      </c>
-      <c r="I464" t="n">
-        <v>11.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17052,11 +15788,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17089,11 +15821,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17126,11 +15854,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17163,11 +15887,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17200,11 +15920,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17237,11 +15953,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17274,11 +15986,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17311,11 +16019,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17348,11 +16052,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17385,11 +16085,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17422,11 +16118,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17459,11 +16151,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17496,11 +16184,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17533,11 +16217,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17570,11 +16250,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17607,11 +16283,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17644,11 +16316,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17681,11 +16349,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17718,11 +16382,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17755,11 +16415,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17792,11 +16448,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17829,11 +16481,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17866,11 +16514,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17903,11 +16547,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17940,11 +16580,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17977,11 +16613,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18014,11 +16646,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18051,11 +16679,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18088,11 +16712,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18125,11 +16745,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18162,11 +16778,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18199,11 +16811,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18236,11 +16844,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18273,11 +16877,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18310,11 +16910,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18347,11 +16943,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18384,11 +16976,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18421,11 +17009,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18458,11 +17042,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18495,11 +17075,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18532,11 +17108,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18569,11 +17141,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18606,11 +17174,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18643,11 +17207,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18680,11 +17240,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18717,11 +17273,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18754,11 +17306,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18791,11 +17339,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18828,11 +17372,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18865,11 +17405,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18902,11 +17438,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18939,11 +17471,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18976,11 +17504,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19013,11 +17537,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19050,11 +17570,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19087,11 +17603,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19124,11 +17636,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19161,11 +17669,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19198,11 +17702,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19235,11 +17735,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19272,11 +17768,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19309,11 +17801,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19346,11 +17834,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19383,11 +17867,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19420,11 +17900,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19457,11 +17933,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19494,11 +17966,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19531,11 +17999,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19568,11 +18032,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19605,11 +18065,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19642,11 +18098,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19679,11 +18131,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19716,11 +18164,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19753,11 +18197,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19790,11 +18230,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19827,11 +18263,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19864,11 +18296,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19901,11 +18329,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19938,11 +18362,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19975,11 +18395,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -20012,11 +18428,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20049,11 +18461,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20086,11 +18494,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20123,11 +18527,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -20160,11 +18560,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -20197,11 +18593,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -20234,11 +18626,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -20271,11 +18659,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -20308,11 +18692,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -20345,11 +18725,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -20382,11 +18758,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -20419,11 +18791,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -20456,11 +18824,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -20493,11 +18857,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -20530,11 +18890,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -20567,11 +18923,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -20604,11 +18956,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -20641,11 +18989,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -20678,11 +19022,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20715,11 +19055,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20752,11 +19088,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20789,11 +19121,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20826,11 +19154,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20863,11 +19187,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20900,11 +19220,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20937,11 +19253,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20974,11 +19286,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -21011,11 +19319,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -21048,11 +19352,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -21085,11 +19385,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -21122,11 +19418,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -21159,11 +19451,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -21196,11 +19484,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -21233,11 +19517,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -21270,11 +19550,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -21307,11 +19583,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -21344,11 +19616,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -21381,11 +19649,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -21418,11 +19682,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -21455,11 +19715,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -21492,11 +19748,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -21529,11 +19781,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -21566,11 +19814,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -21603,11 +19847,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -21640,11 +19880,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -21677,11 +19913,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -21714,11 +19946,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -21751,11 +19979,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -21788,11 +20012,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21825,11 +20045,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21862,11 +20078,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21899,11 +20111,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21936,11 +20144,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21973,11 +20177,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -22010,11 +20210,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -22047,11 +20243,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -22084,11 +20276,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -22121,11 +20309,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -22158,11 +20342,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -22195,11 +20375,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -22232,11 +20408,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -22269,11 +20441,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -22306,11 +20474,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -22343,11 +20507,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -22380,11 +20540,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -22413,16 +20569,14 @@
         <v>-4221511.466130127</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
+      <c r="L610" t="n">
+        <v>1</v>
+      </c>
       <c r="M610" t="inlineStr"/>
     </row>
     <row r="611">
@@ -22448,7 +20602,7 @@
         <v>-4221511.466130127</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -22481,7 +20635,7 @@
         <v>-4251700.959530127</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -22514,7 +20668,7 @@
         <v>-4171562.546930127</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -22547,7 +20701,7 @@
         <v>-4171562.546930127</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -22580,7 +20734,7 @@
         <v>-5020411.666930127</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -22613,7 +20767,7 @@
         <v>-5044545.466730127</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -22646,7 +20800,7 @@
         <v>-4995120.269230127</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -22679,7 +20833,7 @@
         <v>-5133438.887330127</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -22712,7 +20866,7 @@
         <v>-5108256.168630127</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -22745,7 +20899,7 @@
         <v>-5550540.533730127</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -22778,7 +20932,7 @@
         <v>-5550540.533730127</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -22811,7 +20965,7 @@
         <v>-5425452.624830127</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -22844,7 +20998,7 @@
         <v>-5682427.546630126</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -22877,7 +21031,7 @@
         <v>-5609357.647130126</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -22910,7 +21064,7 @@
         <v>-5609357.647130126</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -22943,7 +21097,7 @@
         <v>-5609357.647130126</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -22976,7 +21130,7 @@
         <v>-5609357.647130126</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -23009,7 +21163,7 @@
         <v>-5689295.713730126</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -23042,7 +21196,7 @@
         <v>-5607831.398230126</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -23075,7 +21229,7 @@
         <v>-5298447.856430126</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -23108,7 +21262,7 @@
         <v>-6151737.935730127</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -23141,7 +21295,7 @@
         <v>-6129944.442230127</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -23174,7 +21328,7 @@
         <v>-6330690.143530127</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -23207,7 +21361,7 @@
         <v>-6330690.143530127</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -23240,7 +21394,7 @@
         <v>-6392287.796730126</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -23273,7 +21427,7 @@
         <v>-6371036.983730126</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -23306,7 +21460,7 @@
         <v>-6371036.983730126</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -23339,7 +21493,7 @@
         <v>-6480243.879330127</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -23372,7 +21526,7 @@
         <v>-6480243.879330127</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -23405,7 +21559,7 @@
         <v>-6480233.879330127</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -23438,7 +21592,7 @@
         <v>-6567143.897030126</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -23471,7 +21625,7 @@
         <v>-6567143.897030126</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -23504,7 +21658,7 @@
         <v>-6567143.897030126</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -23537,7 +21691,7 @@
         <v>-6567143.897030126</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -23570,7 +21724,7 @@
         <v>-6567143.897030126</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -23603,7 +21757,7 @@
         <v>-6491098.693830126</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -23636,7 +21790,7 @@
         <v>-6615017.565630126</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -25550,14 +23704,10 @@
         <v>-9110318.026097627</v>
       </c>
       <c r="H705" t="n">
-        <v>1</v>
-      </c>
-      <c r="I705" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J705" t="n">
-        <v>11.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I705" t="inlineStr"/>
+      <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
@@ -25587,19 +23737,11 @@
         <v>-9110318.026097627</v>
       </c>
       <c r="H706" t="n">
-        <v>1</v>
-      </c>
-      <c r="I706" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J706" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I706" t="inlineStr"/>
+      <c r="J706" t="inlineStr"/>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -25628,19 +23770,11 @@
         <v>-9110318.026097627</v>
       </c>
       <c r="H707" t="n">
-        <v>1</v>
-      </c>
-      <c r="I707" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J707" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I707" t="inlineStr"/>
+      <c r="J707" t="inlineStr"/>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -25669,14 +23803,10 @@
         <v>-9110318.026097627</v>
       </c>
       <c r="H708" t="n">
-        <v>1</v>
-      </c>
-      <c r="I708" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J708" t="n">
-        <v>11.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I708" t="inlineStr"/>
+      <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
@@ -25706,19 +23836,11 @@
         <v>-9110318.026097627</v>
       </c>
       <c r="H709" t="n">
-        <v>1</v>
-      </c>
-      <c r="I709" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J709" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I709" t="inlineStr"/>
+      <c r="J709" t="inlineStr"/>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -25750,1267 +23872,1043 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="n">
+      <c r="J710" t="inlineStr"/>
+      <c r="K710" t="inlineStr"/>
+      <c r="L710" t="n">
+        <v>1</v>
+      </c>
+      <c r="M710" t="inlineStr"/>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="n">
+        <v>709</v>
+      </c>
+      <c r="B711" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C711" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="D711" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E711" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="F711" t="n">
+        <v>512996.4509</v>
+      </c>
+      <c r="G711" t="n">
+        <v>-10564327.76479763</v>
+      </c>
+      <c r="H711" t="n">
+        <v>0</v>
+      </c>
+      <c r="I711" t="inlineStr"/>
+      <c r="J711" t="inlineStr"/>
+      <c r="K711" t="inlineStr"/>
+      <c r="L711" t="n">
+        <v>1</v>
+      </c>
+      <c r="M711" t="inlineStr"/>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="n">
+        <v>710</v>
+      </c>
+      <c r="B712" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C712" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="D712" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E712" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="F712" t="n">
+        <v>7354</v>
+      </c>
+      <c r="G712" t="n">
+        <v>-10564327.76479763</v>
+      </c>
+      <c r="H712" t="n">
+        <v>0</v>
+      </c>
+      <c r="I712" t="inlineStr"/>
+      <c r="J712" t="inlineStr"/>
+      <c r="K712" t="inlineStr"/>
+      <c r="L712" t="n">
+        <v>1</v>
+      </c>
+      <c r="M712" t="inlineStr"/>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="n">
+        <v>711</v>
+      </c>
+      <c r="B713" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C713" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="D713" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E713" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="F713" t="n">
+        <v>361185.026</v>
+      </c>
+      <c r="G713" t="n">
+        <v>-10564327.76479763</v>
+      </c>
+      <c r="H713" t="n">
+        <v>0</v>
+      </c>
+      <c r="I713" t="inlineStr"/>
+      <c r="J713" t="inlineStr"/>
+      <c r="K713" t="inlineStr"/>
+      <c r="L713" t="n">
+        <v>1</v>
+      </c>
+      <c r="M713" t="inlineStr"/>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="n">
+        <v>712</v>
+      </c>
+      <c r="B714" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C714" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="D714" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E714" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="F714" t="n">
+        <v>16457.6636</v>
+      </c>
+      <c r="G714" t="n">
+        <v>-10564327.76479763</v>
+      </c>
+      <c r="H714" t="n">
+        <v>0</v>
+      </c>
+      <c r="I714" t="inlineStr"/>
+      <c r="J714" t="inlineStr"/>
+      <c r="K714" t="inlineStr"/>
+      <c r="L714" t="n">
+        <v>1</v>
+      </c>
+      <c r="M714" t="inlineStr"/>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="n">
+        <v>713</v>
+      </c>
+      <c r="B715" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C715" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="D715" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E715" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="F715" t="n">
+        <v>28562.7026</v>
+      </c>
+      <c r="G715" t="n">
+        <v>-10564327.76479763</v>
+      </c>
+      <c r="H715" t="n">
+        <v>0</v>
+      </c>
+      <c r="I715" t="inlineStr"/>
+      <c r="J715" t="inlineStr"/>
+      <c r="K715" t="inlineStr"/>
+      <c r="L715" t="n">
+        <v>1</v>
+      </c>
+      <c r="M715" t="inlineStr"/>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="n">
+        <v>714</v>
+      </c>
+      <c r="B716" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C716" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="D716" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E716" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="F716" t="n">
+        <v>7240.6756</v>
+      </c>
+      <c r="G716" t="n">
+        <v>-10564327.76479763</v>
+      </c>
+      <c r="H716" t="n">
+        <v>0</v>
+      </c>
+      <c r="I716" t="inlineStr"/>
+      <c r="J716" t="inlineStr"/>
+      <c r="K716" t="inlineStr"/>
+      <c r="L716" t="n">
+        <v>1</v>
+      </c>
+      <c r="M716" t="inlineStr"/>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="n">
+        <v>715</v>
+      </c>
+      <c r="B717" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C717" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D717" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E717" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F717" t="n">
+        <v>99905.3913</v>
+      </c>
+      <c r="G717" t="n">
+        <v>-10464422.37349763</v>
+      </c>
+      <c r="H717" t="n">
+        <v>0</v>
+      </c>
+      <c r="I717" t="inlineStr"/>
+      <c r="J717" t="inlineStr"/>
+      <c r="K717" t="inlineStr"/>
+      <c r="L717" t="n">
+        <v>1</v>
+      </c>
+      <c r="M717" t="inlineStr"/>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="n">
+        <v>716</v>
+      </c>
+      <c r="B718" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C718" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D718" t="n">
         <v>11.6</v>
       </c>
-      <c r="K710" t="inlineStr">
+      <c r="E718" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F718" t="n">
+        <v>102456.7651</v>
+      </c>
+      <c r="G718" t="n">
+        <v>-10464422.37349763</v>
+      </c>
+      <c r="H718" t="n">
+        <v>0</v>
+      </c>
+      <c r="I718" t="inlineStr"/>
+      <c r="J718" t="inlineStr"/>
+      <c r="K718" t="inlineStr"/>
+      <c r="L718" t="n">
+        <v>1</v>
+      </c>
+      <c r="M718" t="inlineStr"/>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="n">
+        <v>717</v>
+      </c>
+      <c r="B719" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C719" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D719" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E719" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F719" t="n">
+        <v>100</v>
+      </c>
+      <c r="G719" t="n">
+        <v>-10464322.37349763</v>
+      </c>
+      <c r="H719" t="n">
+        <v>0</v>
+      </c>
+      <c r="I719" t="inlineStr"/>
+      <c r="J719" t="inlineStr"/>
+      <c r="K719" t="inlineStr"/>
+      <c r="L719" t="n">
+        <v>1</v>
+      </c>
+      <c r="M719" t="inlineStr"/>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="n">
+        <v>718</v>
+      </c>
+      <c r="B720" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C720" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D720" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E720" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F720" t="n">
+        <v>111617.7864</v>
+      </c>
+      <c r="G720" t="n">
+        <v>-10464322.37349763</v>
+      </c>
+      <c r="H720" t="n">
+        <v>0</v>
+      </c>
+      <c r="I720" t="inlineStr"/>
+      <c r="J720" t="inlineStr"/>
+      <c r="K720" t="inlineStr"/>
+      <c r="L720" t="n">
+        <v>1</v>
+      </c>
+      <c r="M720" t="inlineStr"/>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="n">
+        <v>719</v>
+      </c>
+      <c r="B721" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C721" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D721" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E721" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F721" t="n">
+        <v>162.4576</v>
+      </c>
+      <c r="G721" t="n">
+        <v>-10464159.91589763</v>
+      </c>
+      <c r="H721" t="n">
+        <v>0</v>
+      </c>
+      <c r="I721" t="inlineStr"/>
+      <c r="J721" t="inlineStr"/>
+      <c r="K721" t="inlineStr"/>
+      <c r="L721" t="n">
+        <v>1</v>
+      </c>
+      <c r="M721" t="inlineStr"/>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="n">
+        <v>720</v>
+      </c>
+      <c r="B722" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C722" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D722" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E722" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F722" t="n">
+        <v>31647.8812</v>
+      </c>
+      <c r="G722" t="n">
+        <v>-10464159.91589763</v>
+      </c>
+      <c r="H722" t="n">
+        <v>0</v>
+      </c>
+      <c r="I722" t="inlineStr"/>
+      <c r="J722" t="inlineStr"/>
+      <c r="K722" t="inlineStr"/>
+      <c r="L722" t="n">
+        <v>1</v>
+      </c>
+      <c r="M722" t="inlineStr"/>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="n">
+        <v>721</v>
+      </c>
+      <c r="B723" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C723" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D723" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E723" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F723" t="n">
+        <v>215299.5477</v>
+      </c>
+      <c r="G723" t="n">
+        <v>-10679459.46359763</v>
+      </c>
+      <c r="H723" t="n">
+        <v>0</v>
+      </c>
+      <c r="I723" t="inlineStr"/>
+      <c r="J723" t="inlineStr"/>
+      <c r="K723" t="inlineStr"/>
+      <c r="L723" t="n">
+        <v>1</v>
+      </c>
+      <c r="M723" t="inlineStr"/>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="n">
+        <v>722</v>
+      </c>
+      <c r="B724" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C724" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D724" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E724" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F724" t="n">
+        <v>76950.992</v>
+      </c>
+      <c r="G724" t="n">
+        <v>-10679459.46359763</v>
+      </c>
+      <c r="H724" t="n">
+        <v>0</v>
+      </c>
+      <c r="I724" t="inlineStr"/>
+      <c r="J724" t="inlineStr"/>
+      <c r="K724" t="inlineStr"/>
+      <c r="L724" t="n">
+        <v>1</v>
+      </c>
+      <c r="M724" t="inlineStr"/>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="n">
+        <v>723</v>
+      </c>
+      <c r="B725" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C725" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D725" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E725" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F725" t="n">
+        <v>154.3347</v>
+      </c>
+      <c r="G725" t="n">
+        <v>-10679305.12889763</v>
+      </c>
+      <c r="H725" t="n">
+        <v>0</v>
+      </c>
+      <c r="I725" t="inlineStr"/>
+      <c r="J725" t="inlineStr"/>
+      <c r="K725" t="inlineStr"/>
+      <c r="L725" t="n">
+        <v>1</v>
+      </c>
+      <c r="M725" t="inlineStr"/>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="n">
+        <v>724</v>
+      </c>
+      <c r="B726" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C726" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D726" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E726" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F726" t="n">
+        <v>32108.548</v>
+      </c>
+      <c r="G726" t="n">
+        <v>-10711413.67689763</v>
+      </c>
+      <c r="H726" t="n">
+        <v>0</v>
+      </c>
+      <c r="I726" t="inlineStr"/>
+      <c r="J726" t="inlineStr"/>
+      <c r="K726" t="inlineStr"/>
+      <c r="L726" t="n">
+        <v>1</v>
+      </c>
+      <c r="M726" t="inlineStr"/>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>725</v>
+      </c>
+      <c r="B727" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C727" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D727" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E727" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F727" t="n">
+        <v>110748.4436</v>
+      </c>
+      <c r="G727" t="n">
+        <v>-10822162.12049763</v>
+      </c>
+      <c r="H727" t="n">
+        <v>0</v>
+      </c>
+      <c r="I727" t="inlineStr"/>
+      <c r="J727" t="inlineStr"/>
+      <c r="K727" t="inlineStr"/>
+      <c r="L727" t="n">
+        <v>1</v>
+      </c>
+      <c r="M727" t="inlineStr"/>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>726</v>
+      </c>
+      <c r="B728" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C728" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D728" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E728" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F728" t="n">
+        <v>51346.4052</v>
+      </c>
+      <c r="G728" t="n">
+        <v>-10770815.71529763</v>
+      </c>
+      <c r="H728" t="n">
+        <v>0</v>
+      </c>
+      <c r="I728" t="inlineStr"/>
+      <c r="J728" t="inlineStr"/>
+      <c r="K728" t="inlineStr"/>
+      <c r="L728" t="n">
+        <v>1</v>
+      </c>
+      <c r="M728" t="inlineStr"/>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>727</v>
+      </c>
+      <c r="B729" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C729" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D729" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E729" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F729" t="n">
+        <v>20403.8247</v>
+      </c>
+      <c r="G729" t="n">
+        <v>-10750411.89059763</v>
+      </c>
+      <c r="H729" t="n">
+        <v>0</v>
+      </c>
+      <c r="I729" t="inlineStr"/>
+      <c r="J729" t="inlineStr"/>
+      <c r="K729" t="inlineStr"/>
+      <c r="L729" t="n">
+        <v>1</v>
+      </c>
+      <c r="M729" t="inlineStr"/>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>728</v>
+      </c>
+      <c r="B730" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C730" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D730" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E730" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F730" t="n">
+        <v>26928.9843</v>
+      </c>
+      <c r="G730" t="n">
+        <v>-10777340.87489763</v>
+      </c>
+      <c r="H730" t="n">
+        <v>0</v>
+      </c>
+      <c r="I730" t="inlineStr"/>
+      <c r="J730" t="inlineStr"/>
+      <c r="K730" t="inlineStr"/>
+      <c r="L730" t="n">
+        <v>1</v>
+      </c>
+      <c r="M730" t="inlineStr"/>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>729</v>
+      </c>
+      <c r="B731" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C731" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D731" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E731" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F731" t="n">
+        <v>4969.9145</v>
+      </c>
+      <c r="G731" t="n">
+        <v>-10772370.96039763</v>
+      </c>
+      <c r="H731" t="n">
+        <v>0</v>
+      </c>
+      <c r="I731" t="inlineStr"/>
+      <c r="J731" t="inlineStr"/>
+      <c r="K731" t="inlineStr"/>
+      <c r="L731" t="n">
+        <v>1</v>
+      </c>
+      <c r="M731" t="inlineStr"/>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>730</v>
+      </c>
+      <c r="B732" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C732" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D732" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E732" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F732" t="n">
+        <v>4969.9145</v>
+      </c>
+      <c r="G732" t="n">
+        <v>-10772370.96039763</v>
+      </c>
+      <c r="H732" t="n">
+        <v>0</v>
+      </c>
+      <c r="I732" t="inlineStr"/>
+      <c r="J732" t="inlineStr"/>
+      <c r="K732" t="inlineStr"/>
+      <c r="L732" t="n">
+        <v>1</v>
+      </c>
+      <c r="M732" t="inlineStr"/>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>731</v>
+      </c>
+      <c r="B733" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C733" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D733" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E733" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F733" t="n">
+        <v>10025.5603</v>
+      </c>
+      <c r="G733" t="n">
+        <v>-10782396.52069763</v>
+      </c>
+      <c r="H733" t="n">
+        <v>0</v>
+      </c>
+      <c r="I733" t="inlineStr"/>
+      <c r="J733" t="inlineStr"/>
+      <c r="K733" t="inlineStr"/>
+      <c r="L733" t="n">
+        <v>1</v>
+      </c>
+      <c r="M733" t="inlineStr"/>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>732</v>
+      </c>
+      <c r="B734" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C734" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D734" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E734" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F734" t="n">
+        <v>246955.4937</v>
+      </c>
+      <c r="G734" t="n">
+        <v>-11029352.01439763</v>
+      </c>
+      <c r="H734" t="n">
+        <v>0</v>
+      </c>
+      <c r="I734" t="inlineStr"/>
+      <c r="J734" t="inlineStr"/>
+      <c r="K734" t="inlineStr"/>
+      <c r="L734" t="n">
+        <v>1</v>
+      </c>
+      <c r="M734" t="inlineStr"/>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>733</v>
+      </c>
+      <c r="B735" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C735" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D735" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E735" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F735" t="n">
+        <v>89691.83229999999</v>
+      </c>
+      <c r="G735" t="n">
+        <v>-10939660.18209763</v>
+      </c>
+      <c r="H735" t="n">
+        <v>0</v>
+      </c>
+      <c r="I735" t="inlineStr"/>
+      <c r="J735" t="inlineStr"/>
+      <c r="K735" t="inlineStr"/>
+      <c r="L735" t="n">
+        <v>1</v>
+      </c>
+      <c r="M735" t="inlineStr"/>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>734</v>
+      </c>
+      <c r="B736" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C736" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D736" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E736" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F736" t="n">
+        <v>100757.1031</v>
+      </c>
+      <c r="G736" t="n">
+        <v>-10939660.18209763</v>
+      </c>
+      <c r="H736" t="n">
+        <v>0</v>
+      </c>
+      <c r="I736" t="inlineStr"/>
+      <c r="J736" t="inlineStr"/>
+      <c r="K736" t="inlineStr"/>
+      <c r="L736" t="n">
+        <v>1</v>
+      </c>
+      <c r="M736" t="inlineStr"/>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>735</v>
+      </c>
+      <c r="B737" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C737" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D737" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E737" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F737" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G737" t="n">
+        <v>-10919660.18209763</v>
+      </c>
+      <c r="H737" t="n">
+        <v>0</v>
+      </c>
+      <c r="I737" t="inlineStr"/>
+      <c r="J737" t="inlineStr"/>
+      <c r="K737" t="inlineStr"/>
+      <c r="L737" t="n">
+        <v>1</v>
+      </c>
+      <c r="M737" t="inlineStr"/>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="B738" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C738" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D738" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E738" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F738" t="n">
+        <v>219154.426</v>
+      </c>
+      <c r="G738" t="n">
+        <v>-11138814.60809763</v>
+      </c>
+      <c r="H738" t="n">
+        <v>0</v>
+      </c>
+      <c r="I738" t="inlineStr"/>
+      <c r="J738" t="inlineStr"/>
+      <c r="K738" t="inlineStr"/>
+      <c r="L738" t="n">
+        <v>1</v>
+      </c>
+      <c r="M738" t="inlineStr"/>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>737</v>
+      </c>
+      <c r="B739" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C739" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D739" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E739" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F739" t="n">
+        <v>86.4102</v>
+      </c>
+      <c r="G739" t="n">
+        <v>-11138728.19789763</v>
+      </c>
+      <c r="H739" t="n">
+        <v>0</v>
+      </c>
+      <c r="I739" t="inlineStr"/>
+      <c r="J739" t="inlineStr"/>
+      <c r="K739" t="inlineStr"/>
+      <c r="L739" t="n">
+        <v>1</v>
+      </c>
+      <c r="M739" t="inlineStr"/>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>738</v>
+      </c>
+      <c r="B740" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C740" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D740" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E740" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F740" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G740" t="n">
+        <v>-11168728.19789763</v>
+      </c>
+      <c r="H740" t="n">
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J740" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K740" t="inlineStr"/>
+      <c r="L740" t="n">
+        <v>1</v>
+      </c>
+      <c r="M740" t="inlineStr"/>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>739</v>
+      </c>
+      <c r="B741" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C741" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D741" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E741" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F741" t="n">
+        <v>10133.4786</v>
+      </c>
+      <c r="G741" t="n">
+        <v>-11158594.71929763</v>
+      </c>
+      <c r="H741" t="n">
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="J741" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K741" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L710" t="n">
-        <v>1</v>
-      </c>
-      <c r="M710" t="inlineStr"/>
-    </row>
-    <row r="711">
-      <c r="A711" s="1" t="n">
-        <v>709</v>
-      </c>
-      <c r="B711" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="C711" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="D711" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="E711" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="F711" t="n">
-        <v>512996.4509</v>
-      </c>
-      <c r="G711" t="n">
-        <v>-10564327.76479763</v>
-      </c>
-      <c r="H711" t="n">
-        <v>0</v>
-      </c>
-      <c r="I711" t="inlineStr"/>
-      <c r="J711" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L711" t="n">
-        <v>1</v>
-      </c>
-      <c r="M711" t="inlineStr"/>
-    </row>
-    <row r="712">
-      <c r="A712" s="1" t="n">
-        <v>710</v>
-      </c>
-      <c r="B712" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="C712" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="D712" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="E712" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="F712" t="n">
-        <v>7354</v>
-      </c>
-      <c r="G712" t="n">
-        <v>-10564327.76479763</v>
-      </c>
-      <c r="H712" t="n">
-        <v>1</v>
-      </c>
-      <c r="I712" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J712" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L712" t="n">
-        <v>1</v>
-      </c>
-      <c r="M712" t="inlineStr"/>
-    </row>
-    <row r="713">
-      <c r="A713" s="1" t="n">
-        <v>711</v>
-      </c>
-      <c r="B713" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="C713" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="D713" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="E713" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="F713" t="n">
-        <v>361185.026</v>
-      </c>
-      <c r="G713" t="n">
-        <v>-10564327.76479763</v>
-      </c>
-      <c r="H713" t="n">
-        <v>1</v>
-      </c>
-      <c r="I713" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J713" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L713" t="n">
-        <v>1</v>
-      </c>
-      <c r="M713" t="inlineStr"/>
-    </row>
-    <row r="714">
-      <c r="A714" s="1" t="n">
-        <v>712</v>
-      </c>
-      <c r="B714" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="C714" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="D714" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="E714" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="F714" t="n">
-        <v>16457.6636</v>
-      </c>
-      <c r="G714" t="n">
-        <v>-10564327.76479763</v>
-      </c>
-      <c r="H714" t="n">
-        <v>1</v>
-      </c>
-      <c r="I714" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J714" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L714" t="n">
-        <v>1</v>
-      </c>
-      <c r="M714" t="inlineStr"/>
-    </row>
-    <row r="715">
-      <c r="A715" s="1" t="n">
-        <v>713</v>
-      </c>
-      <c r="B715" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="C715" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="D715" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="E715" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="F715" t="n">
-        <v>28562.7026</v>
-      </c>
-      <c r="G715" t="n">
-        <v>-10564327.76479763</v>
-      </c>
-      <c r="H715" t="n">
-        <v>1</v>
-      </c>
-      <c r="I715" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J715" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L715" t="n">
-        <v>1</v>
-      </c>
-      <c r="M715" t="inlineStr"/>
-    </row>
-    <row r="716">
-      <c r="A716" s="1" t="n">
-        <v>714</v>
-      </c>
-      <c r="B716" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="C716" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="D716" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="E716" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="F716" t="n">
-        <v>7240.6756</v>
-      </c>
-      <c r="G716" t="n">
-        <v>-10564327.76479763</v>
-      </c>
-      <c r="H716" t="n">
-        <v>1</v>
-      </c>
-      <c r="I716" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J716" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L716" t="n">
-        <v>1</v>
-      </c>
-      <c r="M716" t="inlineStr"/>
-    </row>
-    <row r="717">
-      <c r="A717" s="1" t="n">
-        <v>715</v>
-      </c>
-      <c r="B717" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="C717" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="D717" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="E717" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="F717" t="n">
-        <v>99905.3913</v>
-      </c>
-      <c r="G717" t="n">
-        <v>-10464422.37349763</v>
-      </c>
-      <c r="H717" t="n">
-        <v>1</v>
-      </c>
-      <c r="I717" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J717" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L717" t="n">
-        <v>1</v>
-      </c>
-      <c r="M717" t="inlineStr"/>
-    </row>
-    <row r="718">
-      <c r="A718" s="1" t="n">
-        <v>716</v>
-      </c>
-      <c r="B718" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="C718" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="D718" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E718" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="F718" t="n">
-        <v>102456.7651</v>
-      </c>
-      <c r="G718" t="n">
-        <v>-10464422.37349763</v>
-      </c>
-      <c r="H718" t="n">
-        <v>1</v>
-      </c>
-      <c r="I718" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J718" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L718" t="n">
-        <v>1</v>
-      </c>
-      <c r="M718" t="inlineStr"/>
-    </row>
-    <row r="719">
-      <c r="A719" s="1" t="n">
-        <v>717</v>
-      </c>
-      <c r="B719" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C719" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D719" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E719" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F719" t="n">
-        <v>100</v>
-      </c>
-      <c r="G719" t="n">
-        <v>-10464322.37349763</v>
-      </c>
-      <c r="H719" t="n">
-        <v>1</v>
-      </c>
-      <c r="I719" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J719" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L719" t="n">
-        <v>1</v>
-      </c>
-      <c r="M719" t="inlineStr"/>
-    </row>
-    <row r="720">
-      <c r="A720" s="1" t="n">
-        <v>718</v>
-      </c>
-      <c r="B720" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C720" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D720" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E720" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F720" t="n">
-        <v>111617.7864</v>
-      </c>
-      <c r="G720" t="n">
-        <v>-10464322.37349763</v>
-      </c>
-      <c r="H720" t="n">
-        <v>0</v>
-      </c>
-      <c r="I720" t="inlineStr"/>
-      <c r="J720" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L720" t="n">
-        <v>1</v>
-      </c>
-      <c r="M720" t="inlineStr"/>
-    </row>
-    <row r="721">
-      <c r="A721" s="1" t="n">
-        <v>719</v>
-      </c>
-      <c r="B721" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C721" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D721" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E721" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F721" t="n">
-        <v>162.4576</v>
-      </c>
-      <c r="G721" t="n">
-        <v>-10464159.91589763</v>
-      </c>
-      <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
-      <c r="J721" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L721" t="n">
-        <v>1</v>
-      </c>
-      <c r="M721" t="inlineStr"/>
-    </row>
-    <row r="722">
-      <c r="A722" s="1" t="n">
-        <v>720</v>
-      </c>
-      <c r="B722" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C722" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D722" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E722" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F722" t="n">
-        <v>31647.8812</v>
-      </c>
-      <c r="G722" t="n">
-        <v>-10464159.91589763</v>
-      </c>
-      <c r="H722" t="n">
-        <v>0</v>
-      </c>
-      <c r="I722" t="inlineStr"/>
-      <c r="J722" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L722" t="n">
-        <v>1</v>
-      </c>
-      <c r="M722" t="inlineStr"/>
-    </row>
-    <row r="723">
-      <c r="A723" s="1" t="n">
-        <v>721</v>
-      </c>
-      <c r="B723" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C723" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="D723" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E723" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="F723" t="n">
-        <v>215299.5477</v>
-      </c>
-      <c r="G723" t="n">
-        <v>-10679459.46359763</v>
-      </c>
-      <c r="H723" t="n">
-        <v>0</v>
-      </c>
-      <c r="I723" t="inlineStr"/>
-      <c r="J723" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L723" t="n">
-        <v>1</v>
-      </c>
-      <c r="M723" t="inlineStr"/>
-    </row>
-    <row r="724">
-      <c r="A724" s="1" t="n">
-        <v>722</v>
-      </c>
-      <c r="B724" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="C724" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="D724" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="E724" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="F724" t="n">
-        <v>76950.992</v>
-      </c>
-      <c r="G724" t="n">
-        <v>-10679459.46359763</v>
-      </c>
-      <c r="H724" t="n">
-        <v>0</v>
-      </c>
-      <c r="I724" t="inlineStr"/>
-      <c r="J724" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L724" t="n">
-        <v>1</v>
-      </c>
-      <c r="M724" t="inlineStr"/>
-    </row>
-    <row r="725">
-      <c r="A725" s="1" t="n">
-        <v>723</v>
-      </c>
-      <c r="B725" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C725" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D725" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E725" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F725" t="n">
-        <v>154.3347</v>
-      </c>
-      <c r="G725" t="n">
-        <v>-10679305.12889763</v>
-      </c>
-      <c r="H725" t="n">
-        <v>1</v>
-      </c>
-      <c r="I725" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J725" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L725" t="n">
-        <v>1</v>
-      </c>
-      <c r="M725" t="inlineStr"/>
-    </row>
-    <row r="726">
-      <c r="A726" s="1" t="n">
-        <v>724</v>
-      </c>
-      <c r="B726" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C726" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D726" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E726" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F726" t="n">
-        <v>32108.548</v>
-      </c>
-      <c r="G726" t="n">
-        <v>-10711413.67689763</v>
-      </c>
-      <c r="H726" t="n">
-        <v>1</v>
-      </c>
-      <c r="I726" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J726" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L726" t="n">
-        <v>1</v>
-      </c>
-      <c r="M726" t="inlineStr"/>
-    </row>
-    <row r="727">
-      <c r="A727" s="1" t="n">
-        <v>725</v>
-      </c>
-      <c r="B727" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="C727" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="D727" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="E727" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="F727" t="n">
-        <v>110748.4436</v>
-      </c>
-      <c r="G727" t="n">
-        <v>-10822162.12049763</v>
-      </c>
-      <c r="H727" t="n">
-        <v>1</v>
-      </c>
-      <c r="I727" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J727" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L727" t="n">
-        <v>1</v>
-      </c>
-      <c r="M727" t="inlineStr"/>
-    </row>
-    <row r="728">
-      <c r="A728" s="1" t="n">
-        <v>726</v>
-      </c>
-      <c r="B728" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C728" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D728" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E728" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F728" t="n">
-        <v>51346.4052</v>
-      </c>
-      <c r="G728" t="n">
-        <v>-10770815.71529763</v>
-      </c>
-      <c r="H728" t="n">
-        <v>1</v>
-      </c>
-      <c r="I728" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J728" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L728" t="n">
-        <v>1</v>
-      </c>
-      <c r="M728" t="inlineStr"/>
-    </row>
-    <row r="729">
-      <c r="A729" s="1" t="n">
-        <v>727</v>
-      </c>
-      <c r="B729" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C729" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D729" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E729" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F729" t="n">
-        <v>20403.8247</v>
-      </c>
-      <c r="G729" t="n">
-        <v>-10750411.89059763</v>
-      </c>
-      <c r="H729" t="n">
-        <v>1</v>
-      </c>
-      <c r="I729" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J729" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L729" t="n">
-        <v>1</v>
-      </c>
-      <c r="M729" t="inlineStr"/>
-    </row>
-    <row r="730">
-      <c r="A730" s="1" t="n">
-        <v>728</v>
-      </c>
-      <c r="B730" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="C730" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="D730" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="E730" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="F730" t="n">
-        <v>26928.9843</v>
-      </c>
-      <c r="G730" t="n">
-        <v>-10777340.87489763</v>
-      </c>
-      <c r="H730" t="n">
-        <v>1</v>
-      </c>
-      <c r="I730" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J730" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L730" t="n">
-        <v>1</v>
-      </c>
-      <c r="M730" t="inlineStr"/>
-    </row>
-    <row r="731">
-      <c r="A731" s="1" t="n">
-        <v>729</v>
-      </c>
-      <c r="B731" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C731" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D731" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E731" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F731" t="n">
-        <v>4969.9145</v>
-      </c>
-      <c r="G731" t="n">
-        <v>-10772370.96039763</v>
-      </c>
-      <c r="H731" t="n">
-        <v>1</v>
-      </c>
-      <c r="I731" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J731" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L731" t="n">
-        <v>1</v>
-      </c>
-      <c r="M731" t="inlineStr"/>
-    </row>
-    <row r="732">
-      <c r="A732" s="1" t="n">
-        <v>730</v>
-      </c>
-      <c r="B732" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C732" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D732" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E732" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F732" t="n">
-        <v>4969.9145</v>
-      </c>
-      <c r="G732" t="n">
-        <v>-10772370.96039763</v>
-      </c>
-      <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
-      <c r="J732" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L732" t="n">
-        <v>1</v>
-      </c>
-      <c r="M732" t="inlineStr"/>
-    </row>
-    <row r="733">
-      <c r="A733" s="1" t="n">
-        <v>731</v>
-      </c>
-      <c r="B733" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C733" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D733" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E733" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F733" t="n">
-        <v>10025.5603</v>
-      </c>
-      <c r="G733" t="n">
-        <v>-10782396.52069763</v>
-      </c>
-      <c r="H733" t="n">
-        <v>0</v>
-      </c>
-      <c r="I733" t="inlineStr"/>
-      <c r="J733" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L733" t="n">
-        <v>1</v>
-      </c>
-      <c r="M733" t="inlineStr"/>
-    </row>
-    <row r="734">
-      <c r="A734" s="1" t="n">
-        <v>732</v>
-      </c>
-      <c r="B734" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="C734" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="D734" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="E734" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="F734" t="n">
-        <v>246955.4937</v>
-      </c>
-      <c r="G734" t="n">
-        <v>-11029352.01439763</v>
-      </c>
-      <c r="H734" t="n">
-        <v>0</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
-      <c r="J734" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L734" t="n">
-        <v>1</v>
-      </c>
-      <c r="M734" t="inlineStr"/>
-    </row>
-    <row r="735">
-      <c r="A735" s="1" t="n">
-        <v>733</v>
-      </c>
-      <c r="B735" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="C735" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D735" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E735" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="F735" t="n">
-        <v>89691.83229999999</v>
-      </c>
-      <c r="G735" t="n">
-        <v>-10939660.18209763</v>
-      </c>
-      <c r="H735" t="n">
-        <v>1</v>
-      </c>
-      <c r="I735" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J735" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L735" t="n">
-        <v>1</v>
-      </c>
-      <c r="M735" t="inlineStr"/>
-    </row>
-    <row r="736">
-      <c r="A736" s="1" t="n">
-        <v>734</v>
-      </c>
-      <c r="B736" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C736" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D736" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E736" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F736" t="n">
-        <v>100757.1031</v>
-      </c>
-      <c r="G736" t="n">
-        <v>-10939660.18209763</v>
-      </c>
-      <c r="H736" t="n">
-        <v>1</v>
-      </c>
-      <c r="I736" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J736" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L736" t="n">
-        <v>1</v>
-      </c>
-      <c r="M736" t="inlineStr"/>
-    </row>
-    <row r="737">
-      <c r="A737" s="1" t="n">
-        <v>735</v>
-      </c>
-      <c r="B737" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C737" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D737" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E737" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F737" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G737" t="n">
-        <v>-10919660.18209763</v>
-      </c>
-      <c r="H737" t="n">
-        <v>1</v>
-      </c>
-      <c r="I737" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J737" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L737" t="n">
-        <v>1</v>
-      </c>
-      <c r="M737" t="inlineStr"/>
-    </row>
-    <row r="738">
-      <c r="A738" s="1" t="n">
-        <v>736</v>
-      </c>
-      <c r="B738" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C738" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D738" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E738" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F738" t="n">
-        <v>219154.426</v>
-      </c>
-      <c r="G738" t="n">
-        <v>-11138814.60809763</v>
-      </c>
-      <c r="H738" t="n">
-        <v>1</v>
-      </c>
-      <c r="I738" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J738" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L738" t="n">
-        <v>1</v>
-      </c>
-      <c r="M738" t="inlineStr"/>
-    </row>
-    <row r="739">
-      <c r="A739" s="1" t="n">
-        <v>737</v>
-      </c>
-      <c r="B739" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C739" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D739" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E739" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F739" t="n">
-        <v>86.4102</v>
-      </c>
-      <c r="G739" t="n">
-        <v>-11138728.19789763</v>
-      </c>
-      <c r="H739" t="n">
-        <v>1</v>
-      </c>
-      <c r="I739" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J739" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L739" t="n">
-        <v>1</v>
-      </c>
-      <c r="M739" t="inlineStr"/>
-    </row>
-    <row r="740">
-      <c r="A740" s="1" t="n">
-        <v>738</v>
-      </c>
-      <c r="B740" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C740" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D740" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E740" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F740" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G740" t="n">
-        <v>-11168728.19789763</v>
-      </c>
-      <c r="H740" t="n">
-        <v>1</v>
-      </c>
-      <c r="I740" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J740" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L740" t="n">
-        <v>1</v>
-      </c>
-      <c r="M740" t="inlineStr"/>
-    </row>
-    <row r="741">
-      <c r="A741" s="1" t="n">
-        <v>739</v>
-      </c>
-      <c r="B741" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C741" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D741" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E741" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F741" t="n">
-        <v>10133.4786</v>
-      </c>
-      <c r="G741" t="n">
-        <v>-11158594.71929763</v>
-      </c>
-      <c r="H741" t="n">
-        <v>1</v>
-      </c>
-      <c r="I741" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J741" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -27039,11 +24937,13 @@
         <v>-11338858.21799763</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I742" t="n">
+        <v>11.7</v>
+      </c>
       <c r="J742" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="K742" t="inlineStr">
         <is>
@@ -27084,7 +24984,7 @@
         <v>11.6</v>
       </c>
       <c r="J743" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="K743" t="inlineStr">
         <is>
@@ -27125,7 +25025,7 @@
         <v>11.5</v>
       </c>
       <c r="J744" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="K744" t="inlineStr">
         <is>
@@ -27166,7 +25066,7 @@
         <v>11.5</v>
       </c>
       <c r="J745" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="K745" t="inlineStr">
         <is>
@@ -27207,7 +25107,7 @@
         <v>11.5</v>
       </c>
       <c r="J746" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="K746" t="inlineStr">
         <is>
@@ -27248,7 +25148,7 @@
         <v>11.4</v>
       </c>
       <c r="J747" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="K747" t="inlineStr">
         <is>
@@ -27289,7 +25189,7 @@
         <v>11.5</v>
       </c>
       <c r="J748" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="K748" t="inlineStr">
         <is>
@@ -27302,6 +25202,6 @@
       <c r="M748" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest DVP.xlsx
+++ b/BackTest/2019-10-28 BackTest DVP.xlsx
@@ -946,7 +946,7 @@
         <v>8600007.235463386</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>8600007.235463386</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>6514079.792663386</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>6514079.792663386</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>7352277.421463386</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>4230259.519763387</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>4128839.097563387</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>4128839.097563387</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>3759201.985863387</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>4008347.003063387</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>4008347.003063387</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>4064554.538363387</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>4057117.939963387</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>3965671.547963387</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>4142481.119363387</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>4142481.119363387</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>4142481.119363387</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>3692997.488763387</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>3692997.488763387</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -12628,10 +12628,14 @@
         <v>-5985735.985117051</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="J371" t="n">
+        <v>10.3</v>
+      </c>
       <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
@@ -12664,8 +12668,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12697,8 +12707,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12859,10 +12875,14 @@
         <v>-6275485.018017051</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J378" t="n">
+        <v>10.5</v>
+      </c>
       <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
@@ -12895,8 +12915,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12928,8 +12954,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -12991,10 +13023,14 @@
         <v>-6340494.368217051</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J382" t="n">
+        <v>10.5</v>
+      </c>
       <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
@@ -13024,11 +13060,19 @@
         <v>-6340484.368217051</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J383" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13060,8 +13104,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13123,10 +13173,14 @@
         <v>-6210839.855595556</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="J386" t="n">
+        <v>10.6</v>
+      </c>
       <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
@@ -13159,8 +13213,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13192,8 +13252,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13420,10 +13486,14 @@
         <v>-6197215.448795556</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="J395" t="n">
+        <v>10.7</v>
+      </c>
       <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
@@ -13453,11 +13523,19 @@
         <v>-6197215.448795556</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="J396" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13486,11 +13564,19 @@
         <v>-6197215.448795556</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="J397" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13519,10 +13605,14 @@
         <v>-6240718.618795556</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="J398" t="n">
+        <v>10.7</v>
+      </c>
       <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
@@ -13552,11 +13642,19 @@
         <v>-6238623.111495556</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="J399" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13585,11 +13683,19 @@
         <v>-6240080.111495556</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="J400" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13618,10 +13724,14 @@
         <v>-6240080.111495556</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="J401" t="n">
+        <v>10.6</v>
+      </c>
       <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
@@ -13651,11 +13761,19 @@
         <v>-6240080.111495556</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="J402" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13684,11 +13802,19 @@
         <v>-6240080.111495556</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="J403" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13717,10 +13843,14 @@
         <v>-6240080.111495556</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="J404" t="n">
+        <v>10.6</v>
+      </c>
       <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
@@ -13758,7 +13888,11 @@
       <c r="J405" t="n">
         <v>10.6</v>
       </c>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13834,50 +13968,50 @@
         <v>10.5</v>
       </c>
       <c r="J407" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K407" t="inlineStr"/>
+      <c r="L407" t="n">
+        <v>1</v>
+      </c>
+      <c r="M407" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C408" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D408" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E408" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="F408" t="n">
+        <v>13987.2196</v>
+      </c>
+      <c r="G408" t="n">
+        <v>-6192938.435695555</v>
+      </c>
+      <c r="H408" t="n">
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
         <v>10.6</v>
       </c>
-      <c r="K407" t="inlineStr">
+      <c r="J408" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K408" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L407" t="n">
-        <v>1</v>
-      </c>
-      <c r="M407" t="inlineStr"/>
-    </row>
-    <row r="408">
-      <c r="A408" s="1" t="n">
-        <v>406</v>
-      </c>
-      <c r="B408" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="C408" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="D408" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="E408" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="F408" t="n">
-        <v>13987.2196</v>
-      </c>
-      <c r="G408" t="n">
-        <v>-6192938.435695555</v>
-      </c>
-      <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="J408" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13912,7 +14046,7 @@
         <v>10.7</v>
       </c>
       <c r="J409" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -13947,50 +14081,56 @@
         <v>-6192938.435695555</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>10.7</v>
+      </c>
       <c r="J410" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="K410" t="inlineStr">
+        <v>10.7</v>
+      </c>
+      <c r="K410" t="inlineStr"/>
+      <c r="L410" t="n">
+        <v>1</v>
+      </c>
+      <c r="M410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C411" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D411" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E411" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="F411" t="n">
+        <v>24538.4451</v>
+      </c>
+      <c r="G411" t="n">
+        <v>-6192938.435695555</v>
+      </c>
+      <c r="H411" t="n">
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="J411" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K411" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L410" t="n">
-        <v>1</v>
-      </c>
-      <c r="M410" t="inlineStr"/>
-    </row>
-    <row r="411">
-      <c r="A411" s="1" t="n">
-        <v>409</v>
-      </c>
-      <c r="B411" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="C411" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="D411" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="E411" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="F411" t="n">
-        <v>24538.4451</v>
-      </c>
-      <c r="G411" t="n">
-        <v>-6192938.435695555</v>
-      </c>
-      <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14027,7 +14167,11 @@
       <c r="J412" t="n">
         <v>10.7</v>
       </c>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14056,17 +14200,15 @@
         <v>-6192938.435695555</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>10.7</v>
+      </c>
       <c r="J413" t="n">
         <v>10.7</v>
       </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14095,9 +14237,11 @@
         <v>-6192938.435695555</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>10.7</v>
+      </c>
       <c r="J414" t="n">
         <v>10.7</v>
       </c>
@@ -14134,11 +14278,19 @@
         <v>-6191968.794295555</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="J415" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14167,10 +14319,14 @@
         <v>-6191968.794295555</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="J416" t="n">
+        <v>10.8</v>
+      </c>
       <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
@@ -14200,11 +14356,19 @@
         <v>-6179786.775995555</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="J417" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14233,11 +14397,19 @@
         <v>-6179786.775995555</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="J418" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14266,10 +14438,14 @@
         <v>-6179786.775995555</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="J419" t="n">
+        <v>10.9</v>
+      </c>
       <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
@@ -14299,11 +14475,19 @@
         <v>-6173718.392095556</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="J420" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14332,11 +14516,19 @@
         <v>-6163718.392095556</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>11</v>
+      </c>
+      <c r="J421" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14596,7 +14788,7 @@
         <v>-4722200.915795553</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14662,7 +14854,7 @@
         <v>-4722200.915795553</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14695,7 +14887,7 @@
         <v>-4869453.503195553</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14728,7 +14920,7 @@
         <v>-4869453.503195553</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15322,7 +15514,7 @@
         <v>-4737660.716795553</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15355,7 +15547,7 @@
         <v>-4746360.716795553</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15388,7 +15580,7 @@
         <v>-4718914.389395553</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15454,7 +15646,7 @@
         <v>-4754649.813495553</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15520,7 +15712,7 @@
         <v>-4648634.509595552</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15586,7 +15778,7 @@
         <v>-4735544.527295552</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -19678,7 +19870,7 @@
         <v>-3946377.146736881</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19909,7 +20101,7 @@
         <v>-5143630.615177531</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -20305,7 +20497,7 @@
         <v>-4926326.226835595</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20371,7 +20563,7 @@
         <v>-4926326.226835595</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20404,7 +20596,7 @@
         <v>-4925956.494835596</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20437,7 +20629,7 @@
         <v>-3941563.840730127</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20470,7 +20662,7 @@
         <v>-3618374.157630127</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20503,7 +20695,7 @@
         <v>-4043617.230930127</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20536,7 +20728,7 @@
         <v>-4015715.473130127</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20569,7 +20761,7 @@
         <v>-4221511.466130127</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20602,7 +20794,7 @@
         <v>-4221511.466130127</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20635,7 +20827,7 @@
         <v>-4251700.959530127</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20668,7 +20860,7 @@
         <v>-4171562.546930127</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20701,7 +20893,7 @@
         <v>-4171562.546930127</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20734,7 +20926,7 @@
         <v>-5020411.666930127</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20767,7 +20959,7 @@
         <v>-5044545.466730127</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20800,7 +20992,7 @@
         <v>-4995120.269230127</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20833,7 +21025,7 @@
         <v>-5133438.887330127</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -21097,7 +21289,7 @@
         <v>-5609357.647130126</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21130,7 +21322,7 @@
         <v>-5609357.647130126</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21163,7 +21355,7 @@
         <v>-5689295.713730126</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21196,7 +21388,7 @@
         <v>-5607831.398230126</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -24859,14 +25051,10 @@
         <v>-11168728.19789763</v>
       </c>
       <c r="H740" t="n">
-        <v>1</v>
-      </c>
-      <c r="I740" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J740" t="n">
-        <v>11.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I740" t="inlineStr"/>
+      <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
@@ -24896,19 +25084,11 @@
         <v>-11158594.71929763</v>
       </c>
       <c r="H741" t="n">
-        <v>1</v>
-      </c>
-      <c r="I741" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J741" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I741" t="inlineStr"/>
+      <c r="J741" t="inlineStr"/>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -24937,19 +25117,11 @@
         <v>-11338858.21799763</v>
       </c>
       <c r="H742" t="n">
-        <v>1</v>
-      </c>
-      <c r="I742" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J742" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I742" t="inlineStr"/>
+      <c r="J742" t="inlineStr"/>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -24978,19 +25150,11 @@
         <v>-11541019.25239763</v>
       </c>
       <c r="H743" t="n">
-        <v>1</v>
-      </c>
-      <c r="I743" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J743" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I743" t="inlineStr"/>
+      <c r="J743" t="inlineStr"/>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25019,19 +25183,11 @@
         <v>-11541019.25239763</v>
       </c>
       <c r="H744" t="n">
-        <v>1</v>
-      </c>
-      <c r="I744" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J744" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I744" t="inlineStr"/>
+      <c r="J744" t="inlineStr"/>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25060,19 +25216,11 @@
         <v>-11541019.25239763</v>
       </c>
       <c r="H745" t="n">
-        <v>1</v>
-      </c>
-      <c r="I745" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J745" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I745" t="inlineStr"/>
+      <c r="J745" t="inlineStr"/>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25101,19 +25249,11 @@
         <v>-11559104.59129763</v>
       </c>
       <c r="H746" t="n">
-        <v>1</v>
-      </c>
-      <c r="I746" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J746" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I746" t="inlineStr"/>
+      <c r="J746" t="inlineStr"/>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25142,19 +25282,11 @@
         <v>-11516066.27932372</v>
       </c>
       <c r="H747" t="n">
-        <v>1</v>
-      </c>
-      <c r="I747" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J747" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I747" t="inlineStr"/>
+      <c r="J747" t="inlineStr"/>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25183,19 +25315,11 @@
         <v>-11516066.27932372</v>
       </c>
       <c r="H748" t="n">
-        <v>1</v>
-      </c>
-      <c r="I748" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J748" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I748" t="inlineStr"/>
+      <c r="J748" t="inlineStr"/>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
